--- a/data/selected-wzys.xlsx
+++ b/data/selected-wzys.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idamei/phd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5F76BF22-8C3C-3C41-9FAF-D57FD860C05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6B98BF-3C4A-6A45-9B32-75770B0833CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="19740" windowHeight="21100"/>
+    <workbookView xWindow="5020" yWindow="760" windowWidth="19740" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selected-wzys" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1492">
   <si>
     <t>species_original</t>
   </si>
@@ -1966,12 +1966,6 @@
     <t>MNNINKIFITFLCIELIIGGGGRLLEPLGIFPLRYLLFVFSFILLIFNLVTFNFSITQKCVSLFIWLLLFPFYGFFVGLLAGNKINDILFDVQPYLFMLSLIYLFTLRYTLKLFLCEIFIKIVNAFALYGSLLYISYIILLNFGLLNFNLIYEHLSLTSEFFFRPDGAFFSKSFYFFGVGAIISFVDKKYLKCLIIVLAILLTESRGVLLFTTLSLLLASFKLHKLYLNTIIIILGSVLFIIMLYMVGSRSEDSDSVRFNDLYFYYKNVDLATFLFGRGFGSFILDRLRIEIVPLEILQKTGVIGVFISLVPMLLIFVKGYFLNSTKTSLMMSLILFFSITVSITNPFLFTPMGIFIIGVVVLWVFSIENIQISNNLTSGAK</t>
   </si>
   <si>
-    <t>ACD37173.1</t>
-  </si>
-  <si>
-    <t>EU296423.1</t>
-  </si>
-  <si>
     <t>O135</t>
   </si>
   <si>
@@ -2017,15 +2011,6 @@
     <t>MHKQYYSLLCNKIQFKHLAIYFSVFLSLSSCFLWGGADTFVSQVYIDILATISTALLVVLMFYYYINRVRYLSLTLLFAFVFSLIIGLPSIYLYYFKNANHGFEIICIWGMLINSILYLQTTETVIKEEKRYLTSLFYILFSIVALCQLYKILIYLMFILNSGEGHLAIYTESEELLSQVPFFIRAISGFAVVMSLSTFYFKTPTYIKVIAFVLLASDLAIGIRNKFFFSVICIFILYMYSNEYRVRNLFKQLSKPIFLIAGFLCFSMVSYFREGYQIDFMIYIGIVLDSLSSTLGGMQNLFDMQSSGWDQLHPAVVFTQVLPLSGLGFLDDQQIAKDFSIIVLGDVSSGIALSSSGLLESSLLSLNLGVIIYLLYLSGVMLFIKWGLNNQRIIINFVAISMISGFFYAVRGELILPLAFLLKSLPIVLISPLLVKNKIYHGQ</t>
   </si>
   <si>
-    <t>ADC54950.1</t>
-  </si>
-  <si>
-    <t>GU299793.1</t>
-  </si>
-  <si>
-    <t>MIYILTLTLLLVIAIMFSLLGTKSRITSPLPLHFLPWLLTLIVGISNYDQFYEFNERSFYSLLIWFTVIFIFYFIGELVNYKRENINVYYGLSHIKYECKKYWIIVIPISLYTIFEIYMVGMGGADGFFLNLRLANTLEGYTGKKFILMPAVYPLMMAMFAIVCLTKTSKLNKYSIYFWMFLYCIGTMGKFSILTPILTYLIIYDFKHRLKVKKTIKFTLLIIILALTLHFTRMAENDHSTFLSILGLYIYSPIIALGQLNEVNSSHFGEYTFRFIYAITNKIGLIKELPVNTILDYSYVPVPTNVYTALQPFYQDFGYTGIIFGAVLYGLIYVSLYTAGVRGNNTQALLIYALFSVSSATAFFAETLVTNLAGNVKLVLCTILLWRFTVICKPAQ</t>
-  </si>
-  <si>
     <t>BAQ00669.1</t>
   </si>
   <si>
@@ -2047,21 +2032,6 @@
     <t>MNVVQAMVIIYLCYLIICFFFRLEITHPAVVHTIIWLISASLALVFAEEKYLPNNYYIVIANSMFFIFSFIGGIGVFNKNKAFQLNIDKNSYVNALPFCLIISFYLIILITYNVNVLSNISAFRDYLVADDGANYGLLGRIAMLSLFSSCFLLLRSRRLFLLSAVLCIPIIIILSAKTLVLLYLITILILTPNRLKISKLLIFFSIFILFFIGIMRLRYPEASFNLILYYLYNYISGGFLAFSQLPNSFNQVFGFYSFRNFYLWLNVLYPVEIANILQEWVNVPFPVNVYTYLRPYYMDFDYLSLFFPIIFGFFSGRIYMQKYKNRRIYYIVYPITFYAIAMQLFDDQYLTWLSNWILLIITGYIMTWEGVCRK</t>
   </si>
   <si>
-    <t>AIG62684.1</t>
-  </si>
-  <si>
-    <t>KJ778793.1</t>
-  </si>
-  <si>
-    <t>MSNQEYSQYLFFPNILLFFTIFLLLFLFFIAWFKNNLYSWLDPLLLAILFSSAGVSTVIFLYVLGEIKVNYLLQTMLSQLMLMLGYKILSRRETSYLNKQVKHSTYEQLNTGYPRAFLASSFLFIVAQASTYFLLGIPLLMANRLMIYQEGGFGVLGRIIDATFVISFYTFLDMKVRFKVRGLFKAYGYIYLLFLIISLVLNGSKAGILNLVFIIGIFCYLNKLKFNISLISIYSKFARRLLIFAFISMFIILMVNYGIFSDQNYNRIIDLLGVIFLRIFNSGDIYVLSYPNDALFKIPAEHNGIISLFKDLLATFRIISTNEIPPSLGNIAFNIYSTTEIGGANARQSLFGYYYFGFMGSLLFSFFLGLTMSFFRHVLPRIKKATPLAMGVLCYFILNFSFLDIDPSYQFSKLTNFFIVTPLIILLMGVMPNIRRQKNV</t>
-  </si>
-  <si>
-    <t>ADN43858.1</t>
-  </si>
-  <si>
-    <t>GU068043.1</t>
-  </si>
-  <si>
     <t>O137</t>
   </si>
   <si>
@@ -2086,15 +2056,6 @@
     <t>MNNNIIDTAGRLKLIAFNFMIFVFLVRVPGFPFIILSIISITILSLFLIKVKVELNNKLIPLYCFVIYMILRCVIGFVFNGGYEERYFMVLLLMLFVLIVFTVELKDVRLEQCYNGISAAVIVTLLIVLYEIISGNHMSTSRYSDINNEAFLWSVSKPTAFYYNENDMLSFVVCFLPFTFVLKNTMLRVAIFLLAAASAIYIGSKAAIITILIYGLFTKIISKKAILLLVVTGVVLVNLFATSLIENTSSFISGSSERLLGFWDTILSTRGGDESTSERLSIYKANLDWLGNHPLSATFGNGRFGDYESELMKVYGLRMGEFHNLHLEMITIFGLLFYLLFFSYYFYLWICLFLKKNKNTACYPLLISSAMYPLIISFGPSSSLKYPFLFILCLLMILGFRNDEKHAKKNI</t>
   </si>
   <si>
-    <t>ABI34565.1</t>
-  </si>
-  <si>
-    <t>DQ851855.1</t>
-  </si>
-  <si>
-    <t>MKINDLLKKYTLFSLSPLLSAFIQLASIFLLGHSLSGPELGIAGIYNTIVFILVFISDGGSSSYFIYRKFLPKYDVNLINIFNVAISAFAIIIIGYYVPEKSDLLGLIVVSLTVTLPLYNYARLLVEKKYNIIAIVELKSKLLFFITLYIAINEFDYQGSAVVMSWAVSYFLRYCLFWWFSKKIELYKNDNLPQNKPAAILKSWWMYIHNQILSQVLNYFTITFDIFIISHFGGLEKVGVYSLCKDATLKISAVLSPVISKLLISHVVNIEENKISPMYKKVYKATIIISISVFGIWALCGSSIIHFIRPQLDQGILTFIIGWSICGILRMMINPIVSIFQATGKTRNELYVNITSAVSFIFFMGMLSIYFDNIADAVILALICMYSISFVYATVLLRKYFSKIY</t>
-  </si>
-  <si>
     <t>BAQ00746.1</t>
   </si>
   <si>
@@ -2908,24 +2869,9 @@
     <t>O186</t>
   </si>
   <si>
-    <t>ACD37138.1</t>
-  </si>
-  <si>
-    <t>EU296419.1</t>
-  </si>
-  <si>
     <t>O124</t>
   </si>
   <si>
-    <t>MYFLLFFSIFYFVYVILIGTLCHNYKALLIFSLIPLTIVSGIRYNVGFDFMSYVDYFNQLKYSDDIYLDSTFKYISYFTYYIGGNEQILFLIYAVFYSVALYFLIKLVLENYITEINNFYTIGLVLSFYSFYFLLSFNQIRAVLSALILCYGLLKNKIDFSFIITITLSILFHSAAMFILPLYFVLRKINVTVLLVIFPFLVVASFFNIFSDIVRFILTLLNSRFLTYFNSEYFVPRTGMEKMYSMISMIIVLGMVVCLSKLLPKKFDLMIKFVILFVLLRAMSIDILIFARFSDFLKPMAIILIFTAVYFSSNKVRPRIILPFYLIMTLFLCIFNIIIGSNITKGNYYTYGYNICFFGNKCIDKFY</t>
-  </si>
-  <si>
-    <t>ACD37146.1</t>
-  </si>
-  <si>
-    <t>EU296420.1</t>
-  </si>
-  <si>
     <t>O164</t>
   </si>
   <si>
@@ -2938,9 +2884,6 @@
     <t>AB812053.1</t>
   </si>
   <si>
-    <t>O125ac</t>
-  </si>
-  <si>
     <t>MIYKQYKLVLAQFYGFIGLIMIAVLSTSVKVEIDAILIWFLSVIFTIAIIFFVYNRMWVWFDGMFIILSPFYFFVSFLLYYFFGVNVFNVENNIINTSFLYCVAVWCIVASISLIRPHGINIFLLNKQYNYDNNYNLFIPSCIAWLISLFFLYQSRNLSLNALGESTRLELINSVSQSGWYLKYVVIAYFWILLDLKVVKKNLTNYSFVIYSIPVLLYFYTLMLVGSRREIALSFIMAVLLSLYKAKFKIPLKVALFSILFVSTIILFGIYRSDYNVESSIRLLNALGEFIYPISTLQYYSSIHYQTQFFGISYLQFIVNFIPKELFMGLKPDTLAIQFAKEVYLPSQEFMMGYAFTPFTEAFINYNYYGVIIFPAILCGYSYIMERLIGNNYFLYLVFLSQSINFQRSEFSSMIFELGMFFMAYICLRLSMQIVFFKFK</t>
   </si>
   <si>
@@ -2950,9 +2893,6 @@
     <t>AY217096.1</t>
   </si>
   <si>
-    <t>O128ab</t>
-  </si>
-  <si>
     <t>MISYGVLFLFSYINAVLQKRVTVTLLFFIMIIVSFFKYNIGFDWGNYHEIYLQQGDGFFFYEPLFSLLIILSNKVALEYKYFISMCSLITLIVYYSGMRCFARDIKELALALTYFVVSYCYFEHFNIIRQTLAIALFFYSWKYIIETNFIMYSLFIFFASMIHAAAVVLLPFYFFLRIDNFKPVYYGIVVLFIIIVVRFDINSILLSSLNLFKNFDFVARYLANSTDLADFASKKSDLGLSKMYPAIIFVFCCFWGGIRLESRRDYVFFNAGFIAITLLLLSYQVDILFRFFSFFETSFVLLYCIIFSGFNKKSKIILHMVNLIVYTVMTFNMLSVMGLIPYESYIF</t>
   </si>
   <si>
@@ -3160,18 +3100,9 @@
     <t>MLFTYASYLCILVFSTSVAFCYEHSKSNFKVLLWSVLFLSLWIPAAIRFGVGADYFRYLSMVESVRLGYISTEVGFYFINYFVVWFDLNPQWSIAISSFIVIFLSLKAIPRNYFSISVFVLVCTFYLPSFSLVRQAIAIAFIAYAVKNYIDGNKKNYIIFILIGSLFHLSALLLVPIYFIARFRVRSSILFLGILIISLLLFLGSGLNALLNSEFFLQSKYGYYATSDFIQDAKIGSGVGVFIKMLLPLIFITNAKKILKTNQNLNILLWMSVGCVLANVCSMKIHIFNRLADIFLFVNFMVTSYIINSLEKNVIKQLSSMAIIIVFIVFYCRTIQANYNDDLGGIGISPYKTILSK</t>
   </si>
   <si>
-    <t>AJE24464.1</t>
-  </si>
-  <si>
-    <t>KJ755551.1</t>
-  </si>
-  <si>
     <t>O153</t>
   </si>
   <si>
-    <t>MLVIAWYSIFLLISATGMTGLNKLSTEAILCYIAFLFCFFFGMMLGGVSLPNGMKMLQQEQKIKKRHASAIVLIYCFFIFYSLIALLNIYYFNKVDLSSYRQAFFDGSRDNVKYFYGVFGFYFYYLLSLLVFALVPYTIITNSKKTISLCFFALLLYDIIFLSRTGVYYFILSYIVSSILLKKGIKKIIIVGMVALLFSLIMSYTRDMKSDIIGTLFSSIINYHIAPFVLFDENIISNHLIKYNGAGLASLGIYNIIFYPIDSSIMSSINDFRAQLNEFYDLGVNRYLPYNAYYTSLGGVYIDSGLIGSMMVSFMTGFIIVGIEKSAFKSTKFLVSSVFFTTLCMESIFSPITLNIFAFTIIVYLVVLMVLKYENSDDNTIFKKYRAK</t>
-  </si>
-  <si>
     <t>BAQ01780.1</t>
   </si>
   <si>
@@ -3376,12 +3307,6 @@
     <t>MLETYFIYNFIMLCGIFFAFVKENTHSIIFKVASSLMLIFVIWIPSGIRYGIGTDYFSYLRIFQSALEGRVTTEIGYYLINYLVVVTGGEGYYIFLISSLIIALVIVINMPRHYSCLYVLIFFCIIYLPSFSLVRQSLAVVFLLVSIKHAIENKILLSYFFALVAISFHLSSLLILPFIILRKVRVPPLLALCMIVFCIIFFLSTNILQDIINSSFIASTKYGFYADTKFGGEAIIGTGGGVLIKALLPLMIILQSSKIVKSQPNCNIIILLSIVAICASIASLRIHIFSRVSDLFMFLPLLGVTYLMNSFSKKITKQICACLIFLSMIVLFERTIATNLSENNSGLGVSPYTTIFDVR</t>
   </si>
   <si>
-    <t>AAY28249.1</t>
-  </si>
-  <si>
-    <t>DQ008592.1</t>
-  </si>
-  <si>
     <t>O174</t>
   </si>
   <si>
@@ -3436,16 +3361,10 @@
     <t>MFTISPVFFENITFQGSRTLADVLFCISLLLIICKHKKVNISLLGIVYIIIVLVIMSVNAALGFSNASTTINNELFDKLTWLILDRNINEFIPFGDYYRNILIYTRYLLIPFYFWMGLYYSKLVGKERAIVTLYNGLIICLLLNMLYGIYNDDDRLTGFFENTAALSSLALLCMLLSLFTKSKYKIILSWVIGIIALLMSQTASAFIGLTAVVLILVFNIRRHHKKTVYITSLLSVVIASIGLMPEIMEFIARYMYTGSLINRINTWSTIINYFDSYQVAILGLGSFPLFADNIFIWLISGFGIFSFVIYMYLVSIGNKSQKSALFISLLLWQGVLFPGFIMPYMLMTTFITLGILSNNKGCENECI</t>
   </si>
   <si>
-    <t>AFN02899.1</t>
-  </si>
-  <si>
-    <t>JQ751058.1</t>
-  </si>
-  <si>
     <t>O180</t>
   </si>
   <si>
-    <t>MFNALPGGILIYYTNVTNSVLDKESAEYRIMGLYLILYMMIAFPLGLLFIKPFFFKVGDIGFLTRYQNKPLVGLASTNDAHARVMLTLLTGGCALSLLYVTWSVGNIPQLSFIYHMTHDDILRIRVENSRHFNGLLFIKTIFFEQLTPLLSLVVYAFYRQTKKRYDKLLFVILFIMSLYTVTFSLSKSTLVVYLAFFIFMRIYLNGRIPVMKFFIAAAILFILLIFMFFIVTDQSTADVIVYLLNRMFIDQVSGLYLMLQLFPQTYPFIGVDSLSSILSSLMGAEFVQPSTRLAMEYAFPTAVAEGKMNLLSTLFIGEAWANFGWLGVAISPLYVGMITGFIYYFVLSKRKTPLLIGLLTYCSFGTNFSSQLNMYIYNSVMISLILALGLIYFISVLAGQLSKR</t>
+    <t>MLILIVFVVIISWFLFKIAAGSMSIGQLNIISAIFYYNIMFNALPGGILIYYTNVTNSVLDKVTAEYRIMGLYLILYMMIAFPLGLLFIKPFFFKVGDIGFLTRYQNKPLVGLASTNDAHARVMLTLLTGGCALSLLYVTWSVGNIPQLSFIYHMTHDDILRIRVENSRHFNGLLFIKTIFFEQLTPLLSLVVYAFYRQTKKRYDKLLFVILFIMSLYTVTFSLSKSTLVVYLAFFIFMRIYLNGRIPVMKFFIAAAILFILLIFMFFIVTDQSTADVIVYLLNRMFIDQVSGLYLMLQLFPQTYPFIGVDSLSSILSSLMGAEFVQPSTRLAMEYAFPTAVAEGKMNLLSTLFIGEAWANFGWLGVAISPLYVGMITGFIYYFVLSKRKTPLLIGLLTYCSFGTNFSSQLNMYIYNSVMISLILALGLIYFISVLAGQLSKR</t>
   </si>
   <si>
     <t>BAQ02015.1</t>
@@ -3613,30 +3532,15 @@
     <t>MYIKFYGFSLMENITIYDYVIVNNGLFNKDAVIVFFIIFYLFGCLINIVSNYVSCIYVLLVLIPLSLLFALNGPDKASYLSLYNAIDTVSDVFKYYNTIDSPLYYITMVLFKNIGLTFYSFMVVQNLIISFSLSYLIYKYKWGYHIAMWLYFTHLLVPFSVRGHLVIITILFANRSVVSKIISSLGLVAIHPLISALPITYQLRGLIRGKRSILIIVLTICALVFSSSYLISKYTSYAINGDEYVKNAGLSLIYIVDAIELLLFWSIIRPIALIDKLFLLFPVVLSFGTIIIPMLGRFSYACDLVYILILINNANRLKNKKTLFMCLSLIALIRFVKNYYSIEYFIL</t>
   </si>
   <si>
-    <t>CAS09721.1</t>
-  </si>
-  <si>
-    <t>FM180568.1</t>
-  </si>
-  <si>
     <t>O127</t>
   </si>
   <si>
     <t>MMQITIPKSNDFRRFFNPVILILMSIVLNTFFQLYTSEEEWNSFFIFNQKPDYTVFFISLVFYLFFLFGAFFAYLFNYQKHSNHRSHYLYNFSFYNGLLKFVFYSNVISLIVTQYYMHEANIYNIYISGGVSAQTIESQIASSPLGIHGISVMLGYFGIIMYGISRLIKDNRAIVFISILVIIIKFISYAKLQSLLYVLLALMLFSRRRISINKGVIIGGVVIFLFSFTRIIRNPEQNLSLSFDFLFRFVGGFYFGSPVVNFNYVIQNNIQDVFYFFNWFLPQKIIPASPISLEFPDVTSPIGFVGSAYVSLGIFSVIYAYLVGFIIQLIYLQRNTSPFAFVFQPFVIMACIFAMMYNNFVNMIFFILPLIFSYLVVIKTICARKEDV</t>
   </si>
   <si>
-    <t>ACD37181.1</t>
-  </si>
-  <si>
-    <t>EU296424.1</t>
-  </si>
-  <si>
     <t>O129</t>
   </si>
   <si>
-    <t>MNNINKIFITFLCIELIIGGGGRLLEPLGIFPLRYLLFVFSFILLIFNLVTFNFSITQKCVSLFIWLLLFPFYGFFVGLLAGNKINDILFDVQPYLFMLSLIYLFTLRYTLKLFLCEIFIKIVNAFALYGSLLYISYIILLNFGLLNFNLIYEHLSLTSEFFFRPDGAFFSKSSYFFGAGAIISFVNKKYLKWLLIVLAILLTESRGVLLFTTLSLLLASFKLHKLYLNTIIIILGSVLFIIMLYMVGSRSEDSDSVRFNDLYFYYKNVDLATFLFGRGFGSFILDRLRIGIVPLEILQKTGVIGVYGSLVPMLLIFVKGYFLNSTKTSLMMSLILFFSITVSITNPFLFTPMGIFIIGVVVLWVFSIENIQISNNLTSGAK</t>
-  </si>
-  <si>
     <t>ABA42232.1</t>
   </si>
   <si>
@@ -3649,12 +3553,6 @@
     <t>MTYFTGFILILFAIIIKRLTPSQSKKNIVLIANAFWGILLVGYAFNEQYFVPLSATTLFFILAFLFFFSMTYILIARSGRVVFSFGTGFIESKYIYWFAGMINIISICFGIILLYNNHFSLKVMREGILDGSVSGFGLGISLPLSFCCMYLARHENKKNYFYCFTLFSFLLAVLSTSKIFLILFLVYIVGINSYVSKKKLLIYGTFVFGLFALSSIILGKFSSDPEGKIISAIFDTLRVYLFSGLAAFNLYVEKNVTLPENLLLYPFKEVWGTTKDIPKTDILPWINTGVWDTNVYTAFAPWYQSLGLYAAIIIGILLGFYYGIWFSFRQNLAVGFYQTFLCFPLLMLFFQEHYLLSWKMHFIYFLCAILLAMRKALEYE</t>
   </si>
   <si>
-    <t>ADQ37322.1</t>
-  </si>
-  <si>
-    <t>HM204926.1</t>
-  </si>
-  <si>
     <t>O151</t>
   </si>
   <si>
@@ -3712,36 +3610,12 @@
     <t>AY208937.1</t>
   </si>
   <si>
-    <t>AHG15281.1</t>
-  </si>
-  <si>
-    <t>CP006262.1</t>
-  </si>
-  <si>
     <t>O145</t>
   </si>
   <si>
-    <t>MNIKKDKFINGVLFFWLIISSLYYLNAIFSGVDTLKYNEDLTQKIIKYIVCLLISLSILFIYKKFNYFFVLFFFLFLSVASALFSGAVTIYATTMLIIATMISFCLIIPLFSYNMVKVNRVLLWTGVIVGTISVLELTVFYNYMVSYWAATDGIRSISSLLNPTNSGAYSAIIILIALVTNIKSLFKRALFLIMPMITLISSGSRTAWLSLGMTLLLTVVLRDSASIRLRKKIFTLASIGTVCGALYAIFYMGSISGIESQYRGLNTYTASIRVENFLTYLNLVDLNMLLPDFLDKNINLISDNFYLVMFNYAGLIGFFIVLLILLLLIFWNIQFKIFNELMAEDIAIWRVVFIYFLISGLSNSFINSFPVNQLFFISCGYYIYKYKLVKSSIGR</t>
-  </si>
-  <si>
-    <t>AFD18613.1</t>
-  </si>
-  <si>
-    <t>JN850039.1</t>
-  </si>
-  <si>
     <t>MNIKKDKFINGVIFFWLIISSLYYLNAIFSGVDTLKYNEDLTQKIIKYIVCLVISLSILFIYKKFNYFFVLFFFLFLSVASALFSGAVTIYATTMLIIATMISFCLIIPLFSYNMVKVNRVLLWTGVIVGTISVLELTVFYNYMVSYWAATDGIRSISSLLNPTNSGAYSAIIILIALVTNIKSLFKRALFLIMPMITLISSGSRTAWLSLGMTLLLTVVLRDSASIRLRKKIFTLASIGTVCGALYAIFYMGSISGIESQYRGLNTYTASIRVENFLTYLNLVDLNMLLPDFLDKNINLISDNFYLVMFNYAGLIGFFIVLLILLLLIFWNIQFKIFNELMAEDIAIWRVVFIYFLISGLSNSFINSFPVNQLFFISCGYYIYKYKLVKSSIGR</t>
   </si>
   <si>
-    <t>AAX58762.1</t>
-  </si>
-  <si>
-    <t>AY863412.1</t>
-  </si>
-  <si>
-    <t>MNIKKDKFINGVLFFWLIISSLYYLNAIFSGVDTLKYNEDLTQKIIKYIVCLVISLSILFIYKKFNYFFVLFFFLFLSVASALFSGAVTIYATTMLIIATMISFCLIIPLFSYNMVKVNRVLLWTGVIVGTISVLELTVFYNYMVSYWAATDGIRSISSLLNPTNSGAYSAIIILIALVTNIKSLFKRALFLIMPMITLISSGSRTAWLSLGMTLLLTVVLRDSASIRLRKKIFTLASIGTVCGALYAIFYMGSISGIESQYRGLNTYTASIRVENFLTYLNLVDLNMLLPDFLDKNINLISDNFYLVMFNYAGLIGFFIVLLILLLLIFWNIQFKIFNELMAEDIAIWRVVFIYFLISGLSNSFINSFPVNQLFFISCGYYIYKYKLVKSSIGR</t>
-  </si>
-  <si>
     <t>BAQ01012.1</t>
   </si>
   <si>
@@ -3793,60 +3667,12 @@
     <t>AB972416.1</t>
   </si>
   <si>
-    <t>AIG62747.1</t>
-  </si>
-  <si>
-    <t>KJ778799.1</t>
-  </si>
-  <si>
     <t>O178</t>
   </si>
   <si>
     <t>MNLTLNNFMAYILAITMVIQSYSKVFFASDTIFQNIFFYALVFFSILIVSISKFRLIDIFLIITSLIIYLAFGNGFALKLFLVSLAVRCLDINKLLRCYLLLATIAFITVILFNVGGDNSLIYFKGDGVFRIARETLGFDNPNKPFYYLLPIFCCFVFLYFKRYPISCITAIIIVTYAVYIKTLTTTGLFSNALLVLMLLIYYFLPNKTNRILGNPLLITCSIIVLYFASFFIAFTYHSDSNVNFFLSHRPEYWYEIIRTTNIYLLIFGQALDLQLVPLDNSYIHSVIYMGAFFCIIMIFCYWLGLTRAKLRGVNISIISILCIYVFFYSFGETLLVEPTLNITFIIIFNYIRDHNKYESIDLQP</t>
   </si>
   <si>
-    <t>WP_074526664.1</t>
-  </si>
-  <si>
-    <t>O188</t>
-  </si>
-  <si>
-    <t>MTIVTNRMLLFFIFLIINVPNVEVEYGGSILKIYNAIFFLLLLLYIKKPQWKLHMISSYLLFIVLFFTAYLIINGRDEHLIAIANSYIPNEWQVLYGKQVFDDFYRSTTVSLFQLANFLILVFYFNFFHNVNRSLFLFDSMKYVLAISILTQISISIIQLVAFNNDRPSGSFGNAQSLGFFYLLCICYYSVFLPSWKKSISIIVLLLAIIITGTRSALFIAIIITALNMLNISVFMRKLILFLLFISVVILCSLFSSSDVFRGVILEIIGLFTSPHSMYVRGLMWNSFYQTLTESPLFGTKGITVYFADNFFWFFILSYGICGAVFIGVFFLSIIRSANSKFVFFLGVCTIIQSVSYYGFFIENMGVVLTIFLAISLNHKVKIGY</t>
-  </si>
-  <si>
-    <t>WP_038349068.1</t>
-  </si>
-  <si>
-    <t>O125ab</t>
-  </si>
-  <si>
-    <t>MIYKQYKLVLAQFYGFIGLIMIAVLSTSVKVEIDAILIWFLSVIFTIAILFFVYNRMWVWFDGIFIILSPFYFFVSFLLYYFFGVNVFNVENNIINTSFLYCVAVWCIVASISLIRPHGINIFLLNKQYNYDNNYNLFIPSCIAWLISLFFLYQSRNLSLNALGESTRLELINSVSQSGWYLKYVVIAYFWILLDLKVVKKSLTNYSFVIYSIPVLLYFYTLMLVGSRREIALSFIMAVLLSLYKAKFKIPLKVALFSILFVSTIILFGIYRSDYNVESSIRLLNALGEFIYPISTLQYYSSIHYQTQFFGISYLQFIVNFIPKELFMGLKPDTLAIQFAKEVYLPSQEFMMGYAFTPFTEAFINYNYYGVIIFPAILCGYSYIMERLIGSNYFLYLVFLSQSINFQRSEFSSMIFELGMFFMAYICLRLSMQIVFFKFK</t>
-  </si>
-  <si>
-    <t>WP_024244058.1</t>
-  </si>
-  <si>
-    <t>O128ac</t>
-  </si>
-  <si>
-    <t>WP_046788607.1</t>
-  </si>
-  <si>
-    <t>O141ab</t>
-  </si>
-  <si>
-    <t>MEYMLLCFWLAISCCSVKVSLSKINILLIFIFLSGAYSWGYDWIRYREYYENVFLISDLVTWIYEPGFTFILFVNKLLNLDYHWVVVTCTLILSVNVYKYIKVKNHPNFCLLFVFSIFGFMEFAEQIRQGVAISFILLAVDNLLVKKNKKFIFYVICAAMFHISAIVCLLFLYLVKLLDRKNKAFIMLSLIILGSVSVIAFNVLINNIDFFGVSGFIATKLKGYAESDGSESGILSAGLLLNIMVIVICLLSIQGRHLKYYLSSVFSFFVIQSKIVSIAYRFSYYGYAFIYESFEWLYMANKGRLFNKLAMIIVLLVFAFKPLLNPVYLDMFNDYHFFWFGFLDTLPDVNITQVKRCSTLLNHGIQYCRR</t>
-  </si>
-  <si>
-    <t>WP_000456161.1</t>
-  </si>
-  <si>
-    <t>O141ac</t>
-  </si>
-  <si>
-    <t>MEYMLLCFWLAISCCSVKVSLSKINILLIFIFLSGAYSWGYDWIRYREYYENVFLISDLVTWIYEPGFTFILFVNKLLNLDYHWVVVTCTLILSVNVYKYIKVKNHPNFCLLFVFSIFGFMEFAEQIRQGVAISFILLAVDNLLVKKNKKFIFYVICAAMFHISAIVCLLFLYLVKLLGRKNKAFIMLSLIILGGVSVIAFNVLINNIDFFGVSGFIATKLKGYAESDGSESGILSAGLLLNIMVIVICLLSIQGRHLKYYLSSVFSFFVIQSKIVSIAYRFSYYGYAFIYESFEWLYMANKGRLFNKLAMIIVLLVFAFKPLLNPVYLDMFNDYHFFWFGFLDTLPDVNITQVKRCSTLLNHGIQYCRR</t>
-  </si>
-  <si>
     <t>AAZ20761.1</t>
   </si>
   <si>
@@ -3859,33 +3685,6 @@
     <t>MKNKISFYIAYIYIAPIILSLYYISTTNSLLGDFRTYSYKLEWESSLLFLILYFIPLIIIFCVVKMTGKIKVDTFESIKLEKFAFYSIIITGLITLIFGANAIGHPAQTGIAGVIIKIASKLNPLVLLPLLTFTNVSVRKFFFCAAVVIFYGYMQQSLQGIYISVLCAGAFFLLKVRLNGAIFILMLLSPIIFLGPLLDIITHLYTIRNEIRGVSFSVEEIFSLALGRISTTSSLIYTISNSFNTTGVSDYFVFGIVIERLIGVHILDTVSPSQVFNTYILGANADYSIFMGLAGFLYFIKDFTCSVYCKCCVFDLGTDSYILGANADYSIFMGLAGFFVFLLKTSPAVFIVNAACLILVLILIYLLIPVNNVKYRTSVFFLIMYLPFLSFDIWEISIVFQTIIIWRVFLLLSKISFGLK</t>
   </si>
   <si>
-    <t>AQU71717.1</t>
-  </si>
-  <si>
-    <t>KY115223.1</t>
-  </si>
-  <si>
-    <t>MQIRTRNLLFFIMVLCATIFAMKIMPYSNDHQAYLDLYKFTIYDSSYERMEVGFKSFMVLFKSIDFSFEFLWLLIAFTSVLLKFYVLKSFDSKISVLFWLYFLYCISLLALHEGTQIRAAIAIAIGMVGFRCKNKRLGVCLLLFSAMFHYSAILFIVLYMLNIVAKPYKFTWLLVVIYISTIMPLFLQQYSNILESINPLFTLYLQNSDDTQINKFSFTSIFAIAFFIINFFLGRRLNCYNTNNDFIFKQYNLFSFLYLSSVILLSALSFSPVISIRLYELFSLSPFVIIAILYAKSFKIIFHSDLRLAFFRRTLFSVLWLISVHRFIAYYYVNPIIKF</t>
-  </si>
-  <si>
-    <t>AQU71739.1</t>
-  </si>
-  <si>
-    <t>KY115225.1</t>
-  </si>
-  <si>
-    <t>MQIRTRNLLFFIMVLCATIFAMKIMPYSNDHQAYLDLYKFTIYDSSYERMEVGFKSFMVLFKSIDFSFEFLWLLIAFTSVLLKFYVLKSFDSKISVLFWLYFLYCISLLALHEGTQIRAAIAIAIGMVGFRCKNKRLGVCLLLFSAMFHYSAILFIVLYMLNIVAKPYKFTWLLVVISISTIMPLFLQQYSNILESINPLFTLYLQNSDDTQINKFSFTSIFAIAFFIINFFLGRRLNCYNTNNDFIFKQYNLFSFLYLSSVILLSALSFSPVISIRLYELFSLSPFVIIAILYAKCFKIIFHSDLRLAFFRRTLFSVLWLISVHRFIAYYYVNPIIKF</t>
-  </si>
-  <si>
-    <t>AQU71752.1</t>
-  </si>
-  <si>
-    <t>KY115226.1</t>
-  </si>
-  <si>
-    <t>MFLYLTIFICISILSFLPNQKYVLKVIMFFLLLMCAFRSEFVDRDYTNYITLIFESANNLFYPIEPSFKLISFIAVNIFNGYYFVFIVFALISVSLKYNIIKKSSPFLLLSVLVYYSNTFILQDLTQIRAGVAGAIVLYSVLQYAKNKNIISFVMLILLASTFHITALLFFIVLAFDTNAVSSRYIFIYYLTLIVAYCCSYIGINFLTLFKYIPSSYVQYKFNDYISQSQGADFVPVNIFSVMQILHLFIVGLSFVFSRKRILPREQVLIIKIYSLSPLAFIILSSMPVFSLRISEFFAISEIILLPSLPLLFRQIKFAKLAVIGICFIMFYINIYHLQILNEYSTL</t>
-  </si>
-  <si>
     <t>BAQ02224.1</t>
   </si>
   <si>
@@ -3898,18 +3697,9 @@
     <t>AB972421.1</t>
   </si>
   <si>
-    <t>O13/O129/O135</t>
-  </si>
-  <si>
-    <t>WP_097449287.1</t>
-  </si>
-  <si>
     <t>O57</t>
   </si>
   <si>
-    <t>MIELLLFIVFVTLSCFLLYDFFRNKYYSARFWFICVYLSWFFPQLLNVYQSSSFDESTKISFILYSYFCIVFFIVGNCIVNFKDKLFFNEFDEKKINFWLLIATTVASVSYLKARSVLDVYAELYGGHLTGFITILFFLSRIFIYTYAVSFYNFLDKRNVASFILMLPSLLYFLDRILIYGRRSSLAEFFIITTFILYFKCNKKVSKRYLIVGIVCAVMFIHGVGKYREIMSDPTKSLSEFSLVNSFQEGVTNVNASEALLAMAKIDYVYVNDLYDFGAEAWDRIVHSFIPGQLFGHDLKKYITLNYNTVTNADVVYSGTSGLTNTGFFDSFHAFSFAGVLIFFCFGVFSKYLYVKACTNNYIFVIFYSSSLPQLLHTITHSTTHYIIEVISFNLFFGMYFLFFCKKGTGYVGNA</t>
-  </si>
-  <si>
     <t>BAL03056.1</t>
   </si>
   <si>
@@ -4003,15 +3793,6 @@
     <t>MVYGFLWCLCFLLSLFNNNSYFKYYITLCIIMVLWFLASFRGAGVDGDYANYIEYINDAQSIGYSYRGGYFFDWIVNFFVYIGLPATYVFAVYALAIPIKIKLFQKFSLLSSSILLGYVGFFIYLHDFTQIRAGLAVGIAFWGIYYYAYQNKIKAVILFFASCFIHPSLIFLVAFVCFNKFLSNKLLVVTLMISIILCIINANTFIVQKIVDLSGSADLDLYYRLAVDGQIIKTFGAFPLLNLFISIVSLYYLNNIARENALLSIFIKMLLFSQISWFLFSPIPVLAARISQIFLFSIVFVLPHLSVKLFNQPITIPALYSFVGFLAFIIIAELMHPYQLGF</t>
   </si>
   <si>
-    <t>AAV41072.1</t>
-  </si>
-  <si>
-    <t>AY630255.1</t>
-  </si>
-  <si>
-    <t>MLVTILALFLFIQLLYLISYKRNFNTKSINDILSFIIFLFLIVLFFFRNEDFGADTQNYLNEFDEYCSNPSGYIGVDYTYKYIFDLINFLMLDSCHISWLIWIWPIFVIGCIFLAITIFRVDKIYIMALFSSFIGIELLTNALRQGFSIAVLLLSFCLFIKRRYFLFLIAVTISFLFHQASILIVSIFIISRCSIRIVVPSIVVGVFLLFATNILDVVPWVIEFKKLIYKYLPYADEDFIIRIISIINTLCLCVLYLIVMIKSHCKDKIINNIVINATFVCCIASIVPYLGFRIIYGVYPLLLLLTYCSIRNYIGRVSSYNYLSLSICINIFISIMWLCGSSHMNKIPFVSIII</t>
-  </si>
-  <si>
     <t>ABB65530.1</t>
   </si>
   <si>
@@ -4534,33 +4315,6 @@
     <t>MLIYNTVFLFLVLCALLDLADKKNFFLFTLSFIVLLILMGFRGNGGDDFLVYQQYFNSLPIILYDYGVGYFYLNSFAKYFGNYEFFIFVSSLLCLSLQSFFIYSETEKPCLVLLLFYSTSFLWLDFILIRQSIAVGFFVVAISLYKNSRNKLSFLFFVFSALFHETAFFAAALFYIFSKLEKKGILIAILILLILSPFLSDILVIINNITIKNKNVELYLGEHALPSIANIAEFLMAVLAFIIIKKDDIFRNSKEYRLYKVIIIASFCILVLSYTVPTLARFLEYYRLFYFLLLTRMFMYFNLRSRYMIFIALTVYGFVRMNSFIYQFDSGFDYIFNGSSI</t>
   </si>
   <si>
-    <t>Cronobacter sakazakii</t>
-  </si>
-  <si>
-    <t>_NCTC 11467</t>
-  </si>
-  <si>
-    <t>ABX51880.1</t>
-  </si>
-  <si>
-    <t>EU076545.1</t>
-  </si>
-  <si>
-    <t>MFYLFVVSLFFGSCLDYYIWRKITPSMISVIGIYVILFIHAAIGESLGFLPVESNVYFFITTFYVVGLFASLSCAFGMSFLSKGIVLNTRVTDKYYGLKIRKNIINITVVVSLICCFFIYKGWSEVGSFVSDDFEGTLTYGIAGHFFAILVALIPFLLKAYYSKRTKSVFLLLVFVLVLLFMKQVKYWVMIPLVWMFWYSIVAGYIKLSIRKFLFISLVLAFLLVSLFFSVYFMKVFFREGSENVDYNTVLIEIMIHFFGYLYSGLLTFSVYISDGLYNAFIPSDILGLFSGPVNIINVILNDNLINLTLPKYFVVINKITGTTGNVPTLWGTLLLAGGYYAYVFYFFMFFCIYLLLWFAKRSQCFLIIYTFITSFLFFSWFDYYYYLLMPFEVTVLIFIFYTIFERKIKFRNITLFSGESYDETR</t>
-  </si>
-  <si>
-    <t>_NCTC 8155</t>
-  </si>
-  <si>
-    <t>ABX51892.1</t>
-  </si>
-  <si>
-    <t>EU076546.1</t>
-  </si>
-  <si>
-    <t>MKYKLNDIIFFVVGLALILISGFRPIGLDRDSINYAGMIYAGINDSYELGREPAFILLQYINEVIFTGSITTFFLLFAMVSIGIKLHAIKKISSSPILSLIIYIAFYYILHDMTQIRAGVAAGLFLLAIRELASGKNIKAACLIALATFFHYSAIMGLMIFLLRRHNLNKFFYYALPVIGLIIAKTIGGSGISSLGNLISFMPFILQNKINTYIELQSQDVFSDINIFNFYYVFLLFMFFLALSNYKKMSSPLNTILIKIFGWGLFFFYAFSFIPVMAFRVSEFLCVVIIILFANMMYLFRQSYIYFAFVTSVGIIYFITQGIMANLSLSLY</t>
-  </si>
-  <si>
     <t>CAI34008.1</t>
   </si>
   <si>
@@ -4655,12 +4409,99 @@
   </si>
   <si>
     <t>AB972418.1</t>
+  </si>
+  <si>
+    <t>BAQ01623.1</t>
+  </si>
+  <si>
+    <t>AB812054.1</t>
+  </si>
+  <si>
+    <t>O125</t>
+  </si>
+  <si>
+    <t>O128</t>
+  </si>
+  <si>
+    <t>BAQ02275.1</t>
+  </si>
+  <si>
+    <t>AB972422.1</t>
+  </si>
+  <si>
+    <t>BAQ02286.1</t>
+  </si>
+  <si>
+    <t>AB972423.1</t>
+  </si>
+  <si>
+    <t>AAV74530.1</t>
+  </si>
+  <si>
+    <t>AY647260.1</t>
+  </si>
+  <si>
+    <t>BAQ02302.1</t>
+  </si>
+  <si>
+    <t>AB972424.1</t>
+  </si>
+  <si>
+    <t>BAQ02323.1</t>
+  </si>
+  <si>
+    <t>AB972425.1</t>
+  </si>
+  <si>
+    <t>BAQ01907.1</t>
+  </si>
+  <si>
+    <t>AB812072.1</t>
+  </si>
+  <si>
+    <t>BAQ01948.1</t>
+  </si>
+  <si>
+    <t>AB812075.1</t>
+  </si>
+  <si>
+    <t>BAQ01982.1</t>
+  </si>
+  <si>
+    <t>AB812077.1</t>
+  </si>
+  <si>
+    <t>BAQ00719.1</t>
+  </si>
+  <si>
+    <t>MNWKIKKNVELLILFLVLNQLVIDTFNGYFIFSSQGGGNISVIYKIIIFFLFLFYELVSRDRFIVAFSIVTWGVFLTFFHLLSNNYTEVVMDLSEYIKLATTFIVFLGVSKFSYINPLAFIKYLSVYSFCIILFNILLSAFGVGETSYSDFGYKGFFYAANALSGVFCIVACYLMYITLKKSLTYYIICAGVLALCSFAIGTKTGIVFVAISLVTIPLLMEGKKAKIRVSLLSLVGFLCALVIYADKIYTSNLVLRIVHFYEVGGWSKMLFSDRDLFLKYNIDQFLNSDPVSLLIGIGYAGINAFPKPLTEIDIADITIIYGMLTTSAYISFYIGILFYSNGYLKKNCPRDIIAISRYICLVLMIVSSIAGHILFNGMVTLYLGIAMALPWWMANYRTRHIKGLKINV</t>
+  </si>
+  <si>
+    <t>AB811605.1</t>
+  </si>
+  <si>
+    <t>AB972420.1</t>
+  </si>
+  <si>
+    <t>BAQ02241.1</t>
+  </si>
+  <si>
+    <t>MIPKIIHYCWFGRSPLSELTKQCIASWEKYCPEYKIIRWDENNVDLNSCSFVRQAYKEKKWAFVSDYVRLKVVNEYGGIYLDTDVELIKPLDDLLIYPAYIGFEINKEWYVNSGLGFGSVNNNPVLESLIMEYENINFVNKDGTLNITPCPIRETKALTKIGLIPDGQCQSFDNIVIFSADYFCPVSITGERNFSDKTYSIHHYDASWFSEQKRKGLQRKKRFIKLFGNLIGTYINKPFIFVDECREFGLVKAIKNMRSNFP</t>
+  </si>
+  <si>
+    <t>BAQ01759.1</t>
+  </si>
+  <si>
+    <t>AB812063.1</t>
+  </si>
+  <si>
+    <t>MAYILAITMVIQSYSKVFFASDTIFQNIFFYALVFFSILIVSISKFRLIDIFLIITSLIIYLAFGNGFALKLFLVSLAVRCLDINKLLRCYLLLATIAFITVILFNVGGDNSLIYFKGDGVFRIARETLGFDNPNKPFYYLLPIFCCFVFLYFKRYPISCITAIIIVTYAVYIKTLTTTGLFSNALLVLMLLIYYFLPNKTNRILGNPLLITCSIIVLYFASFFIAFTYHSDSNVNFFLSHRPEYWYEIIRTTNIYLLIFGQALDLQLVPLDNSYIHSVIYMGAFFCIIMIFCYWLGLTRAKLRGVNISIISILCIYVFFYSFGETLLVEPTLNITFIIIFNYIRDHNKYESIDLQP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5153,11 +4994,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
@@ -5514,17 +5353,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J383"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246:XFD246"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="255.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -5566,8 +5406,8 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1514</v>
+      <c r="C2" s="2" t="s">
+        <v>1432</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -6406,16 +6246,16 @@
         <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -6427,7 +6267,7 @@
         <v>1313</v>
       </c>
       <c r="J33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -6435,19 +6275,19 @@
         <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G34">
         <v>16532061</v>
@@ -6456,7 +6296,7 @@
         <v>1313</v>
       </c>
       <c r="J34" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -6464,19 +6304,19 @@
         <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G35">
         <v>16532061</v>
@@ -6493,19 +6333,19 @@
         <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G36">
         <v>16532061</v>
@@ -6514,7 +6354,7 @@
         <v>1313</v>
       </c>
       <c r="J36" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -7815,8 +7655,8 @@
       <c r="B84" t="s">
         <v>418</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>1513</v>
+      <c r="C84" s="2" t="s">
+        <v>1431</v>
       </c>
       <c r="D84" t="s">
         <v>419</v>
@@ -9110,73 +8950,82 @@
         <v>633</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>640</v>
       </c>
       <c r="C135" t="s">
-        <v>1279</v>
+        <v>1137</v>
       </c>
       <c r="D135" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E135" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F135" t="s">
-        <v>1281</v>
+        <v>1139</v>
       </c>
       <c r="G135">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H135">
-        <v>1963780</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="I135">
+        <v>7222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>640</v>
       </c>
       <c r="C136" t="s">
-        <v>1282</v>
+        <v>1435</v>
       </c>
       <c r="D136" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E136" t="s">
-        <v>13</v>
+        <v>1436</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F136" t="s">
-        <v>1284</v>
+        <v>761</v>
       </c>
       <c r="G136">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H136">
-        <v>1963781</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="I136">
+        <v>108685</v>
+      </c>
+      <c r="J136" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>640</v>
       </c>
       <c r="C137" t="s">
-        <v>1285</v>
+        <v>1140</v>
       </c>
       <c r="D137" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E137" t="s">
-        <v>13</v>
+        <v>1141</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F137" t="s">
-        <v>1287</v>
+        <v>1142</v>
       </c>
       <c r="G137">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H137">
-        <v>1963779</v>
+        <v>562</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -9184,25 +9033,25 @@
         <v>640</v>
       </c>
       <c r="C138" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="D138" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>13</v>
+        <v>1144</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F138" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
       <c r="G138">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H138">
         <v>562</v>
       </c>
       <c r="I138">
-        <v>7222</v>
+        <v>124170</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -9210,28 +9059,22 @@
         <v>640</v>
       </c>
       <c r="C139" t="s">
-        <v>1517</v>
+        <v>1146</v>
       </c>
       <c r="D139" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>18</v>
+        <v>1147</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>774</v>
+        <v>1148</v>
       </c>
       <c r="G139">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H139">
         <v>562</v>
-      </c>
-      <c r="I139">
-        <v>108685</v>
-      </c>
-      <c r="J139" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -9239,22 +9082,25 @@
         <v>640</v>
       </c>
       <c r="C140" t="s">
-        <v>1167</v>
+        <v>1433</v>
       </c>
       <c r="D140" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>23</v>
+        <v>1434</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>1169</v>
+        <v>1149</v>
       </c>
       <c r="G140">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H140">
         <v>562</v>
+      </c>
+      <c r="I140">
+        <v>114261</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -9262,25 +9108,22 @@
         <v>640</v>
       </c>
       <c r="C141" t="s">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="D141" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>28</v>
+        <v>1151</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>1172</v>
+        <v>1152</v>
       </c>
       <c r="G141">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H141">
         <v>562</v>
-      </c>
-      <c r="I141">
-        <v>124170</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -9288,19 +9131,19 @@
         <v>640</v>
       </c>
       <c r="C142" t="s">
-        <v>1173</v>
+        <v>1153</v>
       </c>
       <c r="D142" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>33</v>
+        <v>1154</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F142" t="s">
-        <v>1175</v>
+        <v>1155</v>
       </c>
       <c r="G142">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H142">
         <v>562</v>
@@ -9311,25 +9154,22 @@
         <v>640</v>
       </c>
       <c r="C143" t="s">
-        <v>1515</v>
+        <v>641</v>
       </c>
       <c r="D143" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>38</v>
+        <v>642</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F143" t="s">
-        <v>1176</v>
+        <v>643</v>
       </c>
       <c r="G143">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H143">
         <v>562</v>
-      </c>
-      <c r="I143">
-        <v>114261</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -9337,19 +9177,19 @@
         <v>640</v>
       </c>
       <c r="C144" t="s">
-        <v>1177</v>
+        <v>644</v>
       </c>
       <c r="D144" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>43</v>
+        <v>645</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F144" t="s">
-        <v>1179</v>
+        <v>646</v>
       </c>
       <c r="G144">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H144">
         <v>562</v>
@@ -9360,19 +9200,19 @@
         <v>640</v>
       </c>
       <c r="C145" t="s">
-        <v>1180</v>
+        <v>1437</v>
       </c>
       <c r="D145" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>53</v>
+        <v>1438</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F145" t="s">
-        <v>1182</v>
+        <v>647</v>
       </c>
       <c r="G145">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H145">
         <v>562</v>
@@ -9383,19 +9223,19 @@
         <v>640</v>
       </c>
       <c r="C146" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="D146" t="s">
-        <v>642</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>58</v>
+        <v>650</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F146" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="G146">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H146">
         <v>562</v>
@@ -9406,42 +9246,45 @@
         <v>640</v>
       </c>
       <c r="C147" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="D147" t="s">
-        <v>645</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>653</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="F147" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="G147">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H147">
         <v>562</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I147">
+        <v>10218</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>640</v>
       </c>
       <c r="C148" t="s">
-        <v>1519</v>
+        <v>1230</v>
       </c>
       <c r="D148" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>69</v>
+        <v>1231</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F148" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="G148">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H148">
         <v>562</v>
@@ -9452,19 +9295,19 @@
         <v>640</v>
       </c>
       <c r="C149" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="D149" t="s">
-        <v>652</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>79</v>
+        <v>664</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="F149" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="G149">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H149">
         <v>562</v>
@@ -9475,45 +9318,42 @@
         <v>640</v>
       </c>
       <c r="C150" t="s">
-        <v>654</v>
+        <v>1202</v>
       </c>
       <c r="D150" t="s">
-        <v>655</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>656</v>
+        <v>1203</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>1204</v>
       </c>
       <c r="F150" t="s">
-        <v>657</v>
+        <v>1205</v>
       </c>
       <c r="G150">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H150">
         <v>562</v>
       </c>
-      <c r="I150">
-        <v>10218</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>640</v>
       </c>
       <c r="C151" t="s">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="D151" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>668</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F151" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="G151">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H151">
         <v>562</v>
@@ -9524,22 +9364,25 @@
         <v>640</v>
       </c>
       <c r="C152" t="s">
-        <v>665</v>
+        <v>1483</v>
       </c>
       <c r="D152" t="s">
-        <v>666</v>
-      </c>
-      <c r="E152" t="s">
-        <v>91</v>
+        <v>1485</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F152" t="s">
-        <v>667</v>
+        <v>1484</v>
       </c>
       <c r="G152">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H152">
         <v>562</v>
+      </c>
+      <c r="I152" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -9547,19 +9390,19 @@
         <v>640</v>
       </c>
       <c r="C153" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D153" t="s">
-        <v>669</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>670</v>
+        <v>673</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F153" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="G153">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H153">
         <v>562</v>
@@ -9570,19 +9413,19 @@
         <v>640</v>
       </c>
       <c r="C154" t="s">
-        <v>1244</v>
+        <v>675</v>
       </c>
       <c r="D154" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>1246</v>
+        <v>676</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F154" t="s">
-        <v>1247</v>
+        <v>677</v>
       </c>
       <c r="G154">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H154">
         <v>562</v>
@@ -9593,19 +9436,19 @@
         <v>640</v>
       </c>
       <c r="C155" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D155" t="s">
-        <v>673</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>96</v>
+        <v>679</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F155" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="G155">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H155">
         <v>562</v>
@@ -9616,25 +9459,25 @@
         <v>640</v>
       </c>
       <c r="C156" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D156" t="s">
-        <v>676</v>
-      </c>
-      <c r="E156" t="s">
-        <v>101</v>
+        <v>682</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="F156" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="G156">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H156">
         <v>562</v>
       </c>
-      <c r="I156" t="s">
-        <v>616</v>
+      <c r="I156">
+        <v>8411</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -9642,19 +9485,19 @@
         <v>640</v>
       </c>
       <c r="C157" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D157" t="s">
-        <v>683</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>106</v>
+        <v>685</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F157" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G157">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H157">
         <v>562</v>
@@ -9665,19 +9508,19 @@
         <v>640</v>
       </c>
       <c r="C158" t="s">
-        <v>685</v>
+        <v>1183</v>
       </c>
       <c r="D158" t="s">
-        <v>686</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>111</v>
+        <v>1184</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F158" t="s">
-        <v>687</v>
+        <v>1185</v>
       </c>
       <c r="G158">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H158">
         <v>562</v>
@@ -9688,19 +9531,19 @@
         <v>640</v>
       </c>
       <c r="C159" t="s">
+        <v>687</v>
+      </c>
+      <c r="D159" t="s">
         <v>688</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F159" t="s">
         <v>689</v>
       </c>
-      <c r="E159" t="s">
-        <v>111</v>
-      </c>
-      <c r="F159" t="s">
-        <v>690</v>
-      </c>
       <c r="G159">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H159">
         <v>562</v>
@@ -9711,51 +9554,48 @@
         <v>640</v>
       </c>
       <c r="C160" t="s">
+        <v>690</v>
+      </c>
+      <c r="D160" t="s">
         <v>691</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F160" t="s">
         <v>693</v>
       </c>
       <c r="G160">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H160">
         <v>562</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>640</v>
       </c>
       <c r="C161" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D161" t="s">
+      <c r="F161" t="s">
         <v>695</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F161" t="s">
-        <v>696</v>
-      </c>
       <c r="G161">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H161">
         <v>562</v>
       </c>
-      <c r="I161">
-        <v>8411</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>640</v>
       </c>
@@ -9765,336 +9605,336 @@
       <c r="D162" t="s">
         <v>698</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>125</v>
+      <c r="E162" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="F162" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G162">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H162">
         <v>562</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>640</v>
       </c>
       <c r="C163" t="s">
-        <v>1217</v>
+        <v>701</v>
       </c>
       <c r="D163" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>130</v>
+        <v>702</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="F163" t="s">
-        <v>1219</v>
+        <v>704</v>
       </c>
       <c r="G163">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H163">
         <v>562</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>640</v>
       </c>
       <c r="C164" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D164" t="s">
-        <v>701</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>135</v>
+        <v>706</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="F164" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="G164">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H164">
         <v>562</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>640</v>
       </c>
       <c r="C165" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D165" t="s">
-        <v>704</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="F165" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="G165">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H165">
         <v>562</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>640</v>
       </c>
       <c r="C166" t="s">
-        <v>1521</v>
+        <v>713</v>
       </c>
       <c r="D166" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>707</v>
+        <v>714</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="F166" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="G166">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H166">
         <v>562</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>640</v>
       </c>
       <c r="C167" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="D167" t="s">
-        <v>711</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>712</v>
+        <v>718</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="F167" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="G167">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H167">
         <v>562</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>640</v>
       </c>
       <c r="C168" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="D168" t="s">
-        <v>715</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>716</v>
+        <v>722</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="F168" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="G168">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H168">
         <v>562</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>640</v>
       </c>
       <c r="C169" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="D169" t="s">
-        <v>719</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>720</v>
+        <v>726</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="F169" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="G169">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H169">
         <v>562</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>640</v>
       </c>
       <c r="C170" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="D170" t="s">
-        <v>723</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>724</v>
+        <v>730</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="F170" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="G170">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H170">
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>640</v>
       </c>
       <c r="C171" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D171" t="s">
-        <v>727</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>729</v>
+        <v>734</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F171" t="s">
+        <v>736</v>
       </c>
       <c r="G171">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H171">
         <v>562</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>640</v>
       </c>
       <c r="C172" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D172" t="s">
-        <v>731</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>732</v>
+        <v>738</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>739</v>
       </c>
       <c r="F172" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="G172">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H172">
         <v>562</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>640</v>
       </c>
       <c r="C173" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="D173" t="s">
-        <v>735</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>736</v>
+        <v>742</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>743</v>
       </c>
       <c r="F173" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="G173">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H173">
         <v>562</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>640</v>
       </c>
       <c r="C174" t="s">
-        <v>738</v>
+        <v>1441</v>
       </c>
       <c r="D174" t="s">
-        <v>739</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>740</v>
+        <v>1442</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="F174" t="s">
-        <v>741</v>
+        <v>695</v>
       </c>
       <c r="G174">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H174">
         <v>562</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>640</v>
       </c>
       <c r="C175" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D175" t="s">
-        <v>743</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="F175" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="G175">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H175">
         <v>562</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>640</v>
       </c>
       <c r="C176" t="s">
-        <v>746</v>
+        <v>1232</v>
       </c>
       <c r="D176" t="s">
-        <v>747</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>748</v>
+        <v>1233</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>1234</v>
       </c>
       <c r="F176" t="s">
-        <v>749</v>
+        <v>662</v>
       </c>
       <c r="G176">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H176">
         <v>562</v>
@@ -10105,19 +9945,19 @@
         <v>640</v>
       </c>
       <c r="C177" t="s">
-        <v>750</v>
+        <v>1132</v>
       </c>
       <c r="D177" t="s">
-        <v>751</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>752</v>
+        <v>1133</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>1131</v>
       </c>
       <c r="F177" t="s">
-        <v>753</v>
+        <v>1134</v>
       </c>
       <c r="G177">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H177">
         <v>562</v>
@@ -10128,19 +9968,19 @@
         <v>640</v>
       </c>
       <c r="C178" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D178" t="s">
-        <v>755</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>756</v>
+        <v>750</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="F178" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G178">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H178">
         <v>562</v>
@@ -10151,19 +9991,19 @@
         <v>640</v>
       </c>
       <c r="C179" t="s">
-        <v>1523</v>
+        <v>753</v>
       </c>
       <c r="D179" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>709</v>
+        <v>754</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="F179" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
       <c r="G179">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H179">
         <v>562</v>
@@ -10174,19 +10014,19 @@
         <v>640</v>
       </c>
       <c r="C180" t="s">
+        <v>757</v>
+      </c>
+      <c r="D180" t="s">
         <v>758</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="F180" t="s">
         <v>760</v>
       </c>
-      <c r="F180" t="s">
-        <v>761</v>
-      </c>
       <c r="G180">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H180">
         <v>562</v>
@@ -10197,19 +10037,19 @@
         <v>640</v>
       </c>
       <c r="C181" t="s">
-        <v>1302</v>
+        <v>1198</v>
       </c>
       <c r="D181" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>1304</v>
+        <v>1199</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>1200</v>
       </c>
       <c r="F181" t="s">
-        <v>664</v>
+        <v>1201</v>
       </c>
       <c r="G181">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H181">
         <v>562</v>
@@ -10220,19 +10060,19 @@
         <v>640</v>
       </c>
       <c r="C182" t="s">
-        <v>1159</v>
+        <v>763</v>
       </c>
       <c r="D182" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>1158</v>
+        <v>764</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="F182" t="s">
-        <v>1161</v>
+        <v>766</v>
       </c>
       <c r="G182">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H182">
         <v>562</v>
@@ -10243,19 +10083,19 @@
         <v>640</v>
       </c>
       <c r="C183" t="s">
-        <v>762</v>
+        <v>1444</v>
       </c>
       <c r="D183" t="s">
-        <v>763</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>764</v>
+        <v>1443</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="F183" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="G183">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H183">
         <v>562</v>
@@ -10266,68 +10106,71 @@
         <v>640</v>
       </c>
       <c r="C184" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D184" t="s">
-        <v>767</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="F184" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="G184">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H184">
         <v>562</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>640</v>
       </c>
       <c r="C185" t="s">
-        <v>770</v>
+        <v>1445</v>
       </c>
       <c r="D185" t="s">
-        <v>771</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>772</v>
+        <v>1446</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>1135</v>
       </c>
       <c r="F185" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G185">
+        <v>25428893</v>
+      </c>
+      <c r="H185">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>640</v>
+      </c>
+      <c r="C186" t="s">
         <v>773</v>
       </c>
-      <c r="G185">
-        <v>25972421</v>
-      </c>
-      <c r="H185">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>640</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1240</v>
-      </c>
       <c r="D186" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>1242</v>
+        <v>774</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="F186" t="s">
-        <v>1243</v>
+        <v>776</v>
       </c>
       <c r="G186">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H186">
         <v>562</v>
+      </c>
+      <c r="I186">
+        <v>8382</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -10335,22 +10178,25 @@
         <v>640</v>
       </c>
       <c r="C187" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D187" t="s">
-        <v>777</v>
-      </c>
-      <c r="E187" s="2" t="s">
         <v>778</v>
       </c>
+      <c r="E187" s="1" t="s">
+        <v>779</v>
+      </c>
       <c r="F187" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G187">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H187">
         <v>562</v>
+      </c>
+      <c r="I187">
+        <v>108653</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -10358,19 +10204,19 @@
         <v>640</v>
       </c>
       <c r="C188" t="s">
-        <v>1526</v>
+        <v>781</v>
       </c>
       <c r="D188" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>783</v>
       </c>
       <c r="F188" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G188">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H188">
         <v>562</v>
@@ -10381,19 +10227,19 @@
         <v>640</v>
       </c>
       <c r="C189" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D189" t="s">
-        <v>783</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>787</v>
       </c>
       <c r="F189" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G189">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H189">
         <v>562</v>
@@ -10404,19 +10250,19 @@
         <v>640</v>
       </c>
       <c r="C190" t="s">
-        <v>1527</v>
+        <v>1447</v>
       </c>
       <c r="D190" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>1162</v>
+        <v>1448</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>1156</v>
       </c>
       <c r="F190" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="G190">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H190">
         <v>562</v>
@@ -10427,91 +10273,88 @@
         <v>640</v>
       </c>
       <c r="C191" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D191" t="s">
-        <v>787</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>791</v>
       </c>
       <c r="F191" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="G191">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H191">
         <v>562</v>
       </c>
-      <c r="I191">
-        <v>8382</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>640</v>
       </c>
       <c r="C192" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1294</v>
+        <v>793</v>
+      </c>
+      <c r="D192" t="s">
+        <v>794</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="F192" t="s">
-        <v>1295</v>
+        <v>796</v>
       </c>
       <c r="G192">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H192">
         <v>562</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>640</v>
       </c>
       <c r="C193" t="s">
-        <v>790</v>
+        <v>1217</v>
       </c>
       <c r="D193" t="s">
-        <v>791</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>792</v>
+        <v>1218</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>1219</v>
       </c>
       <c r="F193" t="s">
-        <v>793</v>
+        <v>1220</v>
       </c>
       <c r="G193">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H193">
         <v>562</v>
       </c>
-      <c r="I193">
-        <v>108653</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>640</v>
       </c>
       <c r="C194" t="s">
-        <v>794</v>
+        <v>1209</v>
       </c>
       <c r="D194" t="s">
-        <v>795</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>796</v>
+        <v>1210</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>1211</v>
       </c>
       <c r="F194" t="s">
-        <v>797</v>
+        <v>1212</v>
       </c>
       <c r="G194">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H194">
         <v>562</v>
@@ -10522,42 +10365,42 @@
         <v>640</v>
       </c>
       <c r="C195" t="s">
+        <v>797</v>
+      </c>
+      <c r="D195" t="s">
         <v>798</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="F195" t="s">
         <v>800</v>
       </c>
-      <c r="F195" t="s">
+      <c r="G195">
+        <v>25428893</v>
+      </c>
+      <c r="H195">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>640</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="G195">
-        <v>25972421</v>
-      </c>
-      <c r="H195">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>640</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>1183</v>
-      </c>
       <c r="F196" t="s">
-        <v>1184</v>
+        <v>802</v>
       </c>
       <c r="G196">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H196">
         <v>562</v>
@@ -10568,19 +10411,19 @@
         <v>640</v>
       </c>
       <c r="C197" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D197" t="s">
-        <v>803</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="F197" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="G197">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H197">
         <v>562</v>
@@ -10591,68 +10434,71 @@
         <v>640</v>
       </c>
       <c r="C198" t="s">
-        <v>806</v>
+        <v>657</v>
       </c>
       <c r="D198" t="s">
-        <v>807</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>808</v>
+        <v>658</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="F198" t="s">
+        <v>660</v>
+      </c>
+      <c r="G198">
+        <v>25428893</v>
+      </c>
+      <c r="H198">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>640</v>
+      </c>
+      <c r="C199" t="s">
         <v>809</v>
       </c>
-      <c r="G198">
-        <v>25972421</v>
-      </c>
-      <c r="H198">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>640</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1275</v>
-      </c>
       <c r="D199" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>1277</v>
+        <v>810</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="F199" t="s">
-        <v>1278</v>
+        <v>812</v>
       </c>
       <c r="G199">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H199">
         <v>562</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>640</v>
       </c>
       <c r="C200" t="s">
-        <v>1251</v>
+        <v>813</v>
       </c>
       <c r="D200" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>1253</v>
+        <v>814</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="F200" t="s">
-        <v>1254</v>
+        <v>816</v>
       </c>
       <c r="G200">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H200">
         <v>562</v>
+      </c>
+      <c r="I200">
+        <v>20664</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -10660,42 +10506,42 @@
         <v>640</v>
       </c>
       <c r="C201" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="D201" t="s">
-        <v>811</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>812</v>
+        <v>818</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="F201" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="G201">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H201">
         <v>562</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>640</v>
       </c>
       <c r="C202" t="s">
-        <v>1531</v>
+        <v>1213</v>
       </c>
       <c r="D202" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>814</v>
+        <v>1214</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="F202" t="s">
-        <v>815</v>
+        <v>662</v>
       </c>
       <c r="G202">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H202">
         <v>562</v>
@@ -10706,19 +10552,19 @@
         <v>640</v>
       </c>
       <c r="C203" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D203" t="s">
-        <v>819</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="F203" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="G203">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H203">
         <v>562</v>
@@ -10729,19 +10575,19 @@
         <v>640</v>
       </c>
       <c r="C204" t="s">
-        <v>659</v>
+        <v>825</v>
       </c>
       <c r="D204" t="s">
-        <v>660</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>661</v>
+        <v>826</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="F204" t="s">
-        <v>662</v>
+        <v>828</v>
       </c>
       <c r="G204">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H204">
         <v>562</v>
@@ -10752,22 +10598,25 @@
         <v>640</v>
       </c>
       <c r="C205" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="D205" t="s">
-        <v>823</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>824</v>
+        <v>830</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>831</v>
       </c>
       <c r="F205" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="G205">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H205">
         <v>562</v>
+      </c>
+      <c r="I205">
+        <v>11285</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -10775,25 +10624,22 @@
         <v>640</v>
       </c>
       <c r="C206" t="s">
-        <v>826</v>
+        <v>1451</v>
       </c>
       <c r="D206" t="s">
-        <v>827</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>828</v>
+        <v>1452</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>833</v>
       </c>
       <c r="F206" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="G206">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H206">
         <v>562</v>
-      </c>
-      <c r="I206">
-        <v>20664</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -10801,42 +10647,42 @@
         <v>640</v>
       </c>
       <c r="C207" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D207" t="s">
-        <v>831</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>832</v>
+        <v>836</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="F207" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="G207">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H207">
         <v>562</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>640</v>
       </c>
       <c r="C208" t="s">
-        <v>1255</v>
+        <v>839</v>
       </c>
       <c r="D208" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>658</v>
+        <v>840</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="F208" t="s">
-        <v>664</v>
+        <v>842</v>
       </c>
       <c r="G208">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H208">
         <v>562</v>
@@ -10847,19 +10693,19 @@
         <v>640</v>
       </c>
       <c r="C209" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="D209" t="s">
-        <v>835</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>836</v>
+        <v>844</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="F209" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="G209">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H209">
         <v>562</v>
@@ -10870,19 +10716,19 @@
         <v>640</v>
       </c>
       <c r="C210" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="D210" t="s">
-        <v>839</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>840</v>
+        <v>848</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>849</v>
       </c>
       <c r="F210" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="G210">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H210">
         <v>562</v>
@@ -10893,25 +10739,25 @@
         <v>640</v>
       </c>
       <c r="C211" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="D211" t="s">
-        <v>843</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>844</v>
+        <v>852</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="F211" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="G211">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H211">
         <v>562</v>
       </c>
-      <c r="I211">
-        <v>11285</v>
+      <c r="J211" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
@@ -10919,19 +10765,19 @@
         <v>640</v>
       </c>
       <c r="C212" t="s">
-        <v>1533</v>
+        <v>856</v>
       </c>
       <c r="D212" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>846</v>
+        <v>857</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>858</v>
       </c>
       <c r="F212" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="G212">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H212">
         <v>562</v>
@@ -10942,19 +10788,19 @@
         <v>640</v>
       </c>
       <c r="C213" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="D213" t="s">
-        <v>849</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>850</v>
+        <v>861</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>862</v>
       </c>
       <c r="F213" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="G213">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H213">
         <v>562</v>
@@ -10965,19 +10811,19 @@
         <v>640</v>
       </c>
       <c r="C214" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="D214" t="s">
-        <v>853</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>854</v>
+        <v>865</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>866</v>
       </c>
       <c r="F214" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="G214">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H214">
         <v>562</v>
@@ -10988,19 +10834,19 @@
         <v>640</v>
       </c>
       <c r="C215" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="D215" t="s">
-        <v>857</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>858</v>
+        <v>869</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>870</v>
       </c>
       <c r="F215" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="G215">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H215">
         <v>562</v>
@@ -11011,19 +10857,19 @@
         <v>640</v>
       </c>
       <c r="C216" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="D216" t="s">
-        <v>861</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>862</v>
+        <v>873</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>874</v>
       </c>
       <c r="F216" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="G216">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H216">
         <v>562</v>
@@ -11034,25 +10880,22 @@
         <v>640</v>
       </c>
       <c r="C217" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="D217" t="s">
-        <v>865</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>866</v>
+        <v>877</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>878</v>
       </c>
       <c r="F217" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="G217">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H217">
         <v>562</v>
-      </c>
-      <c r="J217" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
@@ -11060,19 +10903,19 @@
         <v>640</v>
       </c>
       <c r="C218" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="D218" t="s">
-        <v>870</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>871</v>
+        <v>881</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>882</v>
       </c>
       <c r="F218" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="G218">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H218">
         <v>562</v>
@@ -11083,19 +10926,19 @@
         <v>640</v>
       </c>
       <c r="C219" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="D219" t="s">
-        <v>874</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>875</v>
+        <v>885</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="F219" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="G219">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H219">
         <v>562</v>
@@ -11106,19 +10949,19 @@
         <v>640</v>
       </c>
       <c r="C220" t="s">
-        <v>877</v>
+        <v>1158</v>
       </c>
       <c r="D220" t="s">
-        <v>878</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>879</v>
+        <v>1159</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>1160</v>
       </c>
       <c r="F220" t="s">
-        <v>880</v>
+        <v>1161</v>
       </c>
       <c r="G220">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H220">
         <v>562</v>
@@ -11129,19 +10972,19 @@
         <v>640</v>
       </c>
       <c r="C221" t="s">
-        <v>881</v>
+        <v>1453</v>
       </c>
       <c r="D221" t="s">
-        <v>882</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>883</v>
+        <v>1454</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>1190</v>
       </c>
       <c r="F221" t="s">
-        <v>884</v>
+        <v>1191</v>
       </c>
       <c r="G221">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H221">
         <v>562</v>
@@ -11152,19 +10995,19 @@
         <v>640</v>
       </c>
       <c r="C222" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D222" t="s">
-        <v>886</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>890</v>
       </c>
       <c r="F222" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="G222">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H222">
         <v>562</v>
@@ -11175,19 +11018,19 @@
         <v>640</v>
       </c>
       <c r="C223" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D223" t="s">
-        <v>890</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>894</v>
       </c>
       <c r="F223" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="G223">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H223">
         <v>562</v>
@@ -11198,19 +11041,19 @@
         <v>640</v>
       </c>
       <c r="C224" t="s">
-        <v>893</v>
+        <v>1455</v>
       </c>
       <c r="D224" t="s">
-        <v>894</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>895</v>
+        <v>1456</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="F224" t="s">
-        <v>896</v>
+        <v>662</v>
       </c>
       <c r="G224">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H224">
         <v>562</v>
@@ -11221,19 +11064,19 @@
         <v>640</v>
       </c>
       <c r="C225" t="s">
+        <v>896</v>
+      </c>
+      <c r="D225" t="s">
         <v>897</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="F225" t="s">
         <v>899</v>
       </c>
-      <c r="F225" t="s">
-        <v>900</v>
-      </c>
       <c r="G225">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H225">
         <v>562</v>
@@ -11244,22 +11087,25 @@
         <v>640</v>
       </c>
       <c r="C226" t="s">
-        <v>1185</v>
+        <v>900</v>
       </c>
       <c r="D226" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>1187</v>
+        <v>901</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>902</v>
       </c>
       <c r="F226" t="s">
-        <v>1188</v>
+        <v>903</v>
       </c>
       <c r="G226">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H226">
         <v>562</v>
+      </c>
+      <c r="I226">
+        <v>25389</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -11267,19 +11113,19 @@
         <v>640</v>
       </c>
       <c r="C227" t="s">
-        <v>1535</v>
+        <v>904</v>
       </c>
       <c r="D227" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>1224</v>
+        <v>905</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>906</v>
       </c>
       <c r="F227" t="s">
-        <v>1225</v>
+        <v>907</v>
       </c>
       <c r="G227">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H227">
         <v>562</v>
@@ -11290,19 +11136,19 @@
         <v>640</v>
       </c>
       <c r="C228" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="D228" t="s">
-        <v>902</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>903</v>
+        <v>909</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="F228" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="G228">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H228">
         <v>562</v>
@@ -11313,19 +11159,19 @@
         <v>640</v>
       </c>
       <c r="C229" t="s">
-        <v>905</v>
+        <v>1457</v>
       </c>
       <c r="D229" t="s">
-        <v>906</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>907</v>
+        <v>1458</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>803</v>
       </c>
       <c r="F229" t="s">
-        <v>908</v>
+        <v>804</v>
       </c>
       <c r="G229">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H229">
         <v>562</v>
@@ -11336,19 +11182,19 @@
         <v>640</v>
       </c>
       <c r="C230" t="s">
-        <v>1537</v>
+        <v>912</v>
       </c>
       <c r="D230" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>663</v>
+        <v>913</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="F230" t="s">
-        <v>664</v>
+        <v>915</v>
       </c>
       <c r="G230">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H230">
         <v>562</v>
@@ -11359,19 +11205,19 @@
         <v>640</v>
       </c>
       <c r="C231" t="s">
-        <v>909</v>
+        <v>1459</v>
       </c>
       <c r="D231" t="s">
-        <v>910</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>911</v>
+        <v>1460</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>916</v>
       </c>
       <c r="F231" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="G231">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H231">
         <v>562</v>
@@ -11382,25 +11228,22 @@
         <v>640</v>
       </c>
       <c r="C232" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="D232" t="s">
-        <v>914</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>915</v>
+        <v>919</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="F232" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="G232">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H232">
         <v>562</v>
-      </c>
-      <c r="I232">
-        <v>25389</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -11408,19 +11251,19 @@
         <v>640</v>
       </c>
       <c r="C233" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="D233" t="s">
-        <v>918</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>919</v>
+        <v>923</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="F233" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="G233">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H233">
         <v>562</v>
@@ -11431,19 +11274,19 @@
         <v>640</v>
       </c>
       <c r="C234" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="D234" t="s">
-        <v>922</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>923</v>
+        <v>927</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>928</v>
       </c>
       <c r="F234" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="G234">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H234">
         <v>562</v>
@@ -11454,19 +11297,19 @@
         <v>640</v>
       </c>
       <c r="C235" t="s">
-        <v>1539</v>
+        <v>930</v>
       </c>
       <c r="D235" t="s">
-        <v>1540</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>816</v>
+        <v>931</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>932</v>
       </c>
       <c r="F235" t="s">
-        <v>817</v>
+        <v>933</v>
       </c>
       <c r="G235">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H235">
         <v>562</v>
@@ -11477,19 +11320,19 @@
         <v>640</v>
       </c>
       <c r="C236" t="s">
-        <v>925</v>
+        <v>1163</v>
       </c>
       <c r="D236" t="s">
-        <v>926</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>927</v>
+        <v>1164</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>1162</v>
       </c>
       <c r="F236" t="s">
-        <v>928</v>
+        <v>1165</v>
       </c>
       <c r="G236">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H236">
         <v>562</v>
@@ -11500,19 +11343,19 @@
         <v>640</v>
       </c>
       <c r="C237" t="s">
-        <v>1541</v>
+        <v>1461</v>
       </c>
       <c r="D237" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>929</v>
+        <v>1462</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>934</v>
       </c>
       <c r="F237" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="G237">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H237">
         <v>562</v>
@@ -11523,19 +11366,19 @@
         <v>640</v>
       </c>
       <c r="C238" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="D238" t="s">
-        <v>932</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>933</v>
+        <v>937</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="F238" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="G238">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H238">
         <v>562</v>
@@ -11546,19 +11389,19 @@
         <v>640</v>
       </c>
       <c r="C239" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="D239" t="s">
-        <v>936</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>937</v>
+        <v>941</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="F239" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="G239">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H239">
         <v>562</v>
@@ -11569,19 +11412,19 @@
         <v>640</v>
       </c>
       <c r="C240" t="s">
-        <v>939</v>
+        <v>1194</v>
       </c>
       <c r="D240" t="s">
-        <v>940</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>941</v>
+        <v>1195</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>1192</v>
       </c>
       <c r="F240" t="s">
-        <v>942</v>
+        <v>1193</v>
       </c>
       <c r="G240">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H240">
         <v>562</v>
@@ -11592,19 +11435,19 @@
         <v>640</v>
       </c>
       <c r="C241" t="s">
-        <v>943</v>
+        <v>1221</v>
       </c>
       <c r="D241" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="F241" t="s">
         <v>945</v>
       </c>
-      <c r="F241" t="s">
-        <v>946</v>
-      </c>
       <c r="G241">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H241">
         <v>562</v>
@@ -11615,42 +11458,42 @@
         <v>640</v>
       </c>
       <c r="C242" t="s">
-        <v>1190</v>
+        <v>1487</v>
       </c>
       <c r="D242" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>1189</v>
+        <v>1486</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>949</v>
       </c>
       <c r="F242" t="s">
-        <v>1192</v>
+        <v>1488</v>
       </c>
       <c r="G242">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H242">
         <v>562</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>640</v>
       </c>
       <c r="C243" t="s">
-        <v>1543</v>
+        <v>952</v>
       </c>
       <c r="D243" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>947</v>
+        <v>953</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>1465</v>
       </c>
       <c r="F243" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="G243">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H243">
         <v>562</v>
@@ -11661,19 +11504,19 @@
         <v>640</v>
       </c>
       <c r="C244" t="s">
-        <v>949</v>
+        <v>1166</v>
       </c>
       <c r="D244" t="s">
-        <v>950</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>951</v>
+        <v>1167</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1168</v>
       </c>
       <c r="F244" t="s">
-        <v>952</v>
+        <v>1169</v>
       </c>
       <c r="G244">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H244">
         <v>562</v>
@@ -11684,19 +11527,19 @@
         <v>640</v>
       </c>
       <c r="C245" t="s">
-        <v>953</v>
+        <v>1463</v>
       </c>
       <c r="D245" t="s">
-        <v>954</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>955</v>
+        <v>1464</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1170</v>
       </c>
       <c r="F245" t="s">
-        <v>956</v>
+        <v>1171</v>
       </c>
       <c r="G245">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H245">
         <v>562</v>
@@ -11707,19 +11550,19 @@
         <v>640</v>
       </c>
       <c r="C246" t="s">
-        <v>1228</v>
+        <v>955</v>
       </c>
       <c r="D246" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>1226</v>
+        <v>956</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>1466</v>
       </c>
       <c r="F246" t="s">
-        <v>1227</v>
+        <v>957</v>
       </c>
       <c r="G246">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H246">
         <v>562</v>
@@ -11730,19 +11573,19 @@
         <v>640</v>
       </c>
       <c r="C247" t="s">
-        <v>1288</v>
+        <v>1223</v>
       </c>
       <c r="D247" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>957</v>
+        <v>1224</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>1172</v>
       </c>
       <c r="F247" t="s">
-        <v>958</v>
+        <v>647</v>
       </c>
       <c r="G247">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H247">
         <v>562</v>
@@ -11753,19 +11596,19 @@
         <v>640</v>
       </c>
       <c r="C248" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D248" t="s">
-        <v>963</v>
-      </c>
-      <c r="E248" t="s">
-        <v>964</v>
+        <v>959</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>960</v>
       </c>
       <c r="F248" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="G248">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H248">
         <v>562</v>
@@ -11776,39 +11619,42 @@
         <v>640</v>
       </c>
       <c r="C249" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E249" t="s">
-        <v>1265</v>
+        <v>962</v>
+      </c>
+      <c r="D249" t="s">
+        <v>963</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>964</v>
       </c>
       <c r="F249" t="s">
-        <v>1266</v>
+        <v>965</v>
       </c>
       <c r="G249">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H249">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>640</v>
       </c>
       <c r="C250" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D250" t="s">
-        <v>971</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>972</v>
+        <v>967</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="F250" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="G250">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H250">
         <v>562</v>
@@ -11819,19 +11665,19 @@
         <v>640</v>
       </c>
       <c r="C251" t="s">
-        <v>1193</v>
+        <v>970</v>
       </c>
       <c r="D251" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>1195</v>
+        <v>971</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>972</v>
       </c>
       <c r="F251" t="s">
-        <v>1196</v>
+        <v>973</v>
       </c>
       <c r="G251">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H251">
         <v>562</v>
@@ -11842,22 +11688,22 @@
         <v>640</v>
       </c>
       <c r="C252" t="s">
-        <v>1197</v>
+        <v>1206</v>
       </c>
       <c r="D252" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E252" t="s">
-        <v>1199</v>
+        <v>1207</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>1208</v>
       </c>
       <c r="F252" t="s">
-        <v>1200</v>
+        <v>752</v>
       </c>
       <c r="G252">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H252">
-        <v>574521</v>
+        <v>562</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -11865,19 +11711,19 @@
         <v>640</v>
       </c>
       <c r="C253" t="s">
-        <v>974</v>
+        <v>1467</v>
       </c>
       <c r="D253" t="s">
-        <v>975</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>976</v>
+        <v>1468</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="F253" t="s">
-        <v>977</v>
+        <v>647</v>
       </c>
       <c r="G253">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H253">
         <v>562</v>
@@ -11888,16 +11734,19 @@
         <v>640</v>
       </c>
       <c r="C254" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1268</v>
+        <v>974</v>
+      </c>
+      <c r="D254" t="s">
+        <v>975</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>976</v>
       </c>
       <c r="F254" t="s">
         <v>977</v>
       </c>
       <c r="G254">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H254">
         <v>562</v>
@@ -11908,25 +11757,25 @@
         <v>640</v>
       </c>
       <c r="C255" t="s">
-        <v>1201</v>
+        <v>1469</v>
       </c>
       <c r="D255" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1203</v>
+        <v>1470</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="F255" t="s">
-        <v>1204</v>
+        <v>671</v>
       </c>
       <c r="G255">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H255">
         <v>562</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>640</v>
       </c>
@@ -11936,14 +11785,14 @@
       <c r="D256" t="s">
         <v>979</v>
       </c>
-      <c r="E256" s="2" t="s">
+      <c r="E256" s="1" t="s">
         <v>980</v>
       </c>
       <c r="F256" t="s">
         <v>981</v>
       </c>
       <c r="G256">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H256">
         <v>562</v>
@@ -11959,14 +11808,14 @@
       <c r="D257" t="s">
         <v>983</v>
       </c>
-      <c r="E257" s="2" t="s">
+      <c r="E257" s="1" t="s">
         <v>984</v>
       </c>
       <c r="F257" t="s">
         <v>985</v>
       </c>
       <c r="G257">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H257">
         <v>562</v>
@@ -11982,14 +11831,14 @@
       <c r="D258" t="s">
         <v>987</v>
       </c>
-      <c r="E258" s="2" t="s">
+      <c r="E258" s="1" t="s">
         <v>988</v>
       </c>
       <c r="F258" t="s">
         <v>989</v>
       </c>
       <c r="G258">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H258">
         <v>562</v>
@@ -12005,37 +11854,37 @@
       <c r="D259" t="s">
         <v>991</v>
       </c>
-      <c r="E259" s="2" t="s">
+      <c r="E259" s="1" t="s">
         <v>992</v>
       </c>
       <c r="F259" t="s">
         <v>993</v>
       </c>
       <c r="G259">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H259">
         <v>562</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>640</v>
       </c>
       <c r="C260" t="s">
-        <v>1248</v>
+        <v>994</v>
       </c>
       <c r="D260" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1250</v>
+        <v>995</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>996</v>
       </c>
       <c r="F260" t="s">
-        <v>765</v>
+        <v>997</v>
       </c>
       <c r="G260">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H260">
         <v>562</v>
@@ -12046,19 +11895,19 @@
         <v>640</v>
       </c>
       <c r="C261" t="s">
-        <v>648</v>
+        <v>998</v>
       </c>
       <c r="D261" t="s">
-        <v>649</v>
-      </c>
-      <c r="E261" t="s">
-        <v>650</v>
+        <v>999</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1000</v>
       </c>
       <c r="F261" t="s">
-        <v>647</v>
+        <v>1001</v>
       </c>
       <c r="G261">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H261">
         <v>562</v>
@@ -12069,19 +11918,19 @@
         <v>640</v>
       </c>
       <c r="C262" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="D262" t="s">
-        <v>995</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>996</v>
+        <v>1003</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1004</v>
       </c>
       <c r="F262" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="G262">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H262">
         <v>562</v>
@@ -12092,42 +11941,42 @@
         <v>640</v>
       </c>
       <c r="C263" t="s">
-        <v>678</v>
+        <v>1471</v>
       </c>
       <c r="D263" t="s">
-        <v>679</v>
-      </c>
-      <c r="E263" t="s">
-        <v>680</v>
+        <v>1472</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1196</v>
       </c>
       <c r="F263" t="s">
-        <v>681</v>
+        <v>1197</v>
       </c>
       <c r="G263">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H263">
         <v>562</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>640</v>
       </c>
       <c r="C264" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="D264" t="s">
-        <v>999</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>1000</v>
+        <v>1007</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>1008</v>
       </c>
       <c r="F264" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G264">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H264">
         <v>562</v>
@@ -12138,19 +11987,19 @@
         <v>640</v>
       </c>
       <c r="C265" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="D265" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>1004</v>
+        <v>1011</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>1012</v>
       </c>
       <c r="F265" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="G265">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H265">
         <v>562</v>
@@ -12161,19 +12010,19 @@
         <v>640</v>
       </c>
       <c r="C266" t="s">
-        <v>1006</v>
+        <v>1173</v>
       </c>
       <c r="D266" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>1008</v>
+        <v>1174</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>1175</v>
       </c>
       <c r="F266" t="s">
-        <v>1009</v>
+        <v>1176</v>
       </c>
       <c r="G266">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H266">
         <v>562</v>
@@ -12184,19 +12033,19 @@
         <v>640</v>
       </c>
       <c r="C267" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="D267" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>1016</v>
       </c>
       <c r="F267" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="G267">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H267">
         <v>562</v>
@@ -12207,16 +12056,19 @@
         <v>640</v>
       </c>
       <c r="C268" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E268" t="s">
-        <v>1270</v>
+        <v>1018</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1020</v>
       </c>
       <c r="F268" t="s">
-        <v>1271</v>
+        <v>1021</v>
       </c>
       <c r="G268">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H268">
         <v>562</v>
@@ -12227,39 +12079,42 @@
         <v>640</v>
       </c>
       <c r="C269" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1273</v>
+        <v>1473</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="F269" t="s">
-        <v>1274</v>
+        <v>1178</v>
       </c>
       <c r="G269">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H269">
         <v>562</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>640</v>
       </c>
       <c r="C270" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="D270" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>1016</v>
+        <v>1023</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>1024</v>
       </c>
       <c r="F270" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="G270">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H270">
         <v>562</v>
@@ -12270,19 +12125,19 @@
         <v>640</v>
       </c>
       <c r="C271" t="s">
-        <v>1018</v>
+        <v>1489</v>
       </c>
       <c r="D271" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>1020</v>
+        <v>1490</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>1026</v>
       </c>
       <c r="F271" t="s">
-        <v>1021</v>
+        <v>1491</v>
       </c>
       <c r="G271">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H271">
         <v>562</v>
@@ -12293,19 +12148,19 @@
         <v>640</v>
       </c>
       <c r="C272" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="D272" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>1024</v>
+        <v>1028</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1029</v>
       </c>
       <c r="F272" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="G272">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H272">
         <v>562</v>
@@ -12316,22 +12171,22 @@
         <v>640</v>
       </c>
       <c r="C273" t="s">
-        <v>1230</v>
+        <v>1031</v>
       </c>
       <c r="D273" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1232</v>
+        <v>1032</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>1033</v>
       </c>
       <c r="F273" t="s">
-        <v>1233</v>
+        <v>1034</v>
       </c>
       <c r="G273">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H273">
-        <v>1248915</v>
+        <v>562</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -12339,19 +12194,19 @@
         <v>640</v>
       </c>
       <c r="C274" t="s">
-        <v>1234</v>
+        <v>1035</v>
       </c>
       <c r="D274" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1232</v>
+        <v>1036</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>1037</v>
       </c>
       <c r="F274" t="s">
-        <v>1236</v>
+        <v>1038</v>
       </c>
       <c r="G274">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H274">
         <v>562</v>
@@ -12362,19 +12217,19 @@
         <v>640</v>
       </c>
       <c r="C275" t="s">
-        <v>1237</v>
+        <v>1187</v>
       </c>
       <c r="D275" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E275" t="s">
-        <v>1232</v>
+        <v>1188</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>1186</v>
       </c>
       <c r="F275" t="s">
-        <v>1239</v>
+        <v>1189</v>
       </c>
       <c r="G275">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H275">
         <v>562</v>
@@ -12385,19 +12240,19 @@
         <v>640</v>
       </c>
       <c r="C276" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
       <c r="D276" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>1028</v>
+        <v>1040</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>1041</v>
       </c>
       <c r="F276" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
       <c r="G276">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H276">
         <v>562</v>
@@ -12408,19 +12263,19 @@
         <v>640</v>
       </c>
       <c r="C277" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
       <c r="D277" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>1032</v>
+        <v>1044</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>1045</v>
       </c>
       <c r="F277" t="s">
-        <v>1033</v>
+        <v>1046</v>
       </c>
       <c r="G277">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H277">
         <v>562</v>
@@ -12431,19 +12286,19 @@
         <v>640</v>
       </c>
       <c r="C278" t="s">
-        <v>1205</v>
+        <v>1047</v>
       </c>
       <c r="D278" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>1207</v>
+        <v>1048</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>1049</v>
       </c>
       <c r="F278" t="s">
-        <v>1208</v>
+        <v>1050</v>
       </c>
       <c r="G278">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H278">
         <v>562</v>
@@ -12454,42 +12309,42 @@
         <v>640</v>
       </c>
       <c r="C279" t="s">
-        <v>1034</v>
+        <v>1051</v>
       </c>
       <c r="D279" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>1036</v>
+        <v>1052</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>1053</v>
       </c>
       <c r="F279" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="G279">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H279">
         <v>562</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>640</v>
       </c>
       <c r="C280" t="s">
-        <v>1038</v>
+        <v>1055</v>
       </c>
       <c r="D280" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>1040</v>
+        <v>1056</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>1057</v>
       </c>
       <c r="F280" t="s">
-        <v>1041</v>
+        <v>1058</v>
       </c>
       <c r="G280">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H280">
         <v>562</v>
@@ -12500,19 +12355,19 @@
         <v>640</v>
       </c>
       <c r="C281" t="s">
-        <v>1209</v>
+        <v>1475</v>
       </c>
       <c r="D281" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E281" t="s">
-        <v>1211</v>
+        <v>1476</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>950</v>
       </c>
       <c r="F281" t="s">
-        <v>1212</v>
+        <v>951</v>
       </c>
       <c r="G281">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H281">
         <v>562</v>
@@ -12523,19 +12378,19 @@
         <v>640</v>
       </c>
       <c r="C282" t="s">
-        <v>1042</v>
+        <v>1059</v>
       </c>
       <c r="D282" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>1044</v>
+        <v>1060</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="F282" t="s">
-        <v>1045</v>
+        <v>1062</v>
       </c>
       <c r="G282">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H282">
         <v>562</v>
@@ -12546,19 +12401,19 @@
         <v>640</v>
       </c>
       <c r="C283" t="s">
-        <v>1046</v>
+        <v>1063</v>
       </c>
       <c r="D283" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E283" t="s">
-        <v>1048</v>
+        <v>1064</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>1065</v>
       </c>
       <c r="F283" t="s">
-        <v>1049</v>
+        <v>1066</v>
       </c>
       <c r="G283">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H283">
         <v>562</v>
@@ -12569,19 +12424,19 @@
         <v>640</v>
       </c>
       <c r="C284" t="s">
-        <v>1050</v>
+        <v>1067</v>
       </c>
       <c r="D284" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>1052</v>
+        <v>1068</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>1069</v>
       </c>
       <c r="F284" t="s">
-        <v>1053</v>
+        <v>1070</v>
       </c>
       <c r="G284">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H284">
         <v>562</v>
@@ -12592,19 +12447,19 @@
         <v>640</v>
       </c>
       <c r="C285" t="s">
-        <v>1054</v>
+        <v>1071</v>
       </c>
       <c r="D285" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>1056</v>
+        <v>1072</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>1073</v>
       </c>
       <c r="F285" t="s">
-        <v>1057</v>
+        <v>1074</v>
       </c>
       <c r="G285">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H285">
         <v>562</v>
@@ -12615,19 +12470,19 @@
         <v>640</v>
       </c>
       <c r="C286" t="s">
-        <v>1058</v>
+        <v>1075</v>
       </c>
       <c r="D286" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>1060</v>
+        <v>1076</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>1077</v>
       </c>
       <c r="F286" t="s">
-        <v>1061</v>
+        <v>1078</v>
       </c>
       <c r="G286">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H286">
         <v>562</v>
@@ -12638,19 +12493,19 @@
         <v>640</v>
       </c>
       <c r="C287" t="s">
-        <v>1221</v>
+        <v>1079</v>
       </c>
       <c r="D287" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>1220</v>
+        <v>1080</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>1081</v>
       </c>
       <c r="F287" t="s">
-        <v>1223</v>
+        <v>1082</v>
       </c>
       <c r="G287">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H287">
         <v>562</v>
@@ -12661,19 +12516,19 @@
         <v>640</v>
       </c>
       <c r="C288" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
       <c r="D288" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>1064</v>
+        <v>1084</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>1085</v>
       </c>
       <c r="F288" t="s">
-        <v>1065</v>
+        <v>1086</v>
       </c>
       <c r="G288">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H288">
         <v>562</v>
@@ -12684,19 +12539,19 @@
         <v>640</v>
       </c>
       <c r="C289" t="s">
-        <v>1066</v>
+        <v>1087</v>
       </c>
       <c r="D289" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>1068</v>
+        <v>1088</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>1089</v>
       </c>
       <c r="F289" t="s">
-        <v>1069</v>
+        <v>1090</v>
       </c>
       <c r="G289">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H289">
         <v>562</v>
@@ -12707,22 +12562,25 @@
         <v>640</v>
       </c>
       <c r="C290" t="s">
-        <v>1070</v>
+        <v>1091</v>
       </c>
       <c r="D290" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>1072</v>
+        <v>1092</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>1093</v>
       </c>
       <c r="F290" t="s">
-        <v>1073</v>
+        <v>1094</v>
       </c>
       <c r="G290">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H290">
         <v>562</v>
+      </c>
+      <c r="I290">
+        <v>3159</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -12730,42 +12588,42 @@
         <v>640</v>
       </c>
       <c r="C291" t="s">
-        <v>1074</v>
+        <v>1477</v>
       </c>
       <c r="D291" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>1076</v>
+        <v>1478</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>1095</v>
       </c>
       <c r="F291" t="s">
-        <v>1077</v>
+        <v>1096</v>
       </c>
       <c r="G291">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H291">
         <v>562</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>640</v>
       </c>
       <c r="C292" t="s">
-        <v>1078</v>
+        <v>1097</v>
       </c>
       <c r="D292" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>1080</v>
+        <v>1098</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>1099</v>
       </c>
       <c r="F292" t="s">
-        <v>1081</v>
+        <v>1100</v>
       </c>
       <c r="G292">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H292">
         <v>562</v>
@@ -12776,19 +12634,19 @@
         <v>640</v>
       </c>
       <c r="C293" t="s">
-        <v>966</v>
+        <v>1101</v>
       </c>
       <c r="D293" t="s">
-        <v>967</v>
-      </c>
-      <c r="E293" t="s">
-        <v>968</v>
+        <v>1102</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>1103</v>
       </c>
       <c r="F293" t="s">
-        <v>969</v>
+        <v>1104</v>
       </c>
       <c r="G293">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H293">
         <v>562</v>
@@ -12799,19 +12657,19 @@
         <v>640</v>
       </c>
       <c r="C294" t="s">
-        <v>1082</v>
+        <v>1105</v>
       </c>
       <c r="D294" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>1084</v>
+        <v>1106</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>1107</v>
       </c>
       <c r="F294" t="s">
-        <v>1085</v>
+        <v>1108</v>
       </c>
       <c r="G294">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H294">
         <v>562</v>
@@ -12822,19 +12680,19 @@
         <v>640</v>
       </c>
       <c r="C295" t="s">
-        <v>1086</v>
+        <v>1479</v>
       </c>
       <c r="D295" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>1088</v>
+        <v>1480</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>1215</v>
       </c>
       <c r="F295" t="s">
-        <v>1089</v>
+        <v>1216</v>
       </c>
       <c r="G295">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H295">
         <v>562</v>
@@ -12845,19 +12703,19 @@
         <v>640</v>
       </c>
       <c r="C296" t="s">
-        <v>1090</v>
+        <v>1109</v>
       </c>
       <c r="D296" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>1092</v>
+        <v>1110</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>1111</v>
       </c>
       <c r="F296" t="s">
-        <v>1093</v>
+        <v>1112</v>
       </c>
       <c r="G296">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H296">
         <v>562</v>
@@ -12868,19 +12726,19 @@
         <v>640</v>
       </c>
       <c r="C297" t="s">
-        <v>1094</v>
+        <v>1481</v>
       </c>
       <c r="D297" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>1096</v>
+        <v>1482</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>1113</v>
       </c>
       <c r="F297" t="s">
-        <v>1097</v>
+        <v>1114</v>
       </c>
       <c r="G297">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H297">
         <v>562</v>
@@ -12891,19 +12749,19 @@
         <v>640</v>
       </c>
       <c r="C298" t="s">
-        <v>1098</v>
+        <v>1179</v>
       </c>
       <c r="D298" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>1100</v>
+        <v>1180</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>1181</v>
       </c>
       <c r="F298" t="s">
-        <v>1101</v>
+        <v>1182</v>
       </c>
       <c r="G298">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H298">
         <v>562</v>
@@ -12914,19 +12772,19 @@
         <v>640</v>
       </c>
       <c r="C299" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="D299" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>1104</v>
+        <v>1116</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>1117</v>
       </c>
       <c r="F299" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
       <c r="G299">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H299">
         <v>562</v>
@@ -12937,19 +12795,19 @@
         <v>640</v>
       </c>
       <c r="C300" t="s">
-        <v>1106</v>
+        <v>1226</v>
       </c>
       <c r="D300" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>1108</v>
+        <v>1227</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>1228</v>
       </c>
       <c r="F300" t="s">
-        <v>1109</v>
+        <v>1229</v>
       </c>
       <c r="G300">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H300">
         <v>562</v>
@@ -12960,19 +12818,19 @@
         <v>640</v>
       </c>
       <c r="C301" t="s">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="D301" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>1112</v>
+        <v>1120</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>1121</v>
       </c>
       <c r="F301" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="G301">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H301">
         <v>562</v>
@@ -12983,25 +12841,22 @@
         <v>640</v>
       </c>
       <c r="C302" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="D302" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>1116</v>
+        <v>1124</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>1125</v>
       </c>
       <c r="F302" t="s">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="G302">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H302">
         <v>562</v>
-      </c>
-      <c r="I302">
-        <v>3159</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -13009,19 +12864,19 @@
         <v>640</v>
       </c>
       <c r="C303" t="s">
-        <v>1118</v>
+        <v>946</v>
       </c>
       <c r="D303" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E303" t="s">
-        <v>1120</v>
+        <v>947</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>948</v>
       </c>
       <c r="F303" t="s">
-        <v>1121</v>
+        <v>945</v>
       </c>
       <c r="G303">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H303">
         <v>562</v>
@@ -13032,73 +12887,76 @@
         <v>640</v>
       </c>
       <c r="C304" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="D304" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>1124</v>
+        <v>1128</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>1129</v>
       </c>
       <c r="F304" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="G304">
-        <v>25972421</v>
+        <v>25428893</v>
       </c>
       <c r="H304">
         <v>562</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>640</v>
+        <v>1235</v>
       </c>
       <c r="C305" t="s">
-        <v>1126</v>
+        <v>1317</v>
       </c>
       <c r="D305" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>1128</v>
+        <v>1318</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
       </c>
       <c r="F305" t="s">
-        <v>1129</v>
+        <v>1319</v>
       </c>
       <c r="G305">
-        <v>25972421</v>
+        <v>30709819</v>
       </c>
       <c r="H305">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+      <c r="J305" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>640</v>
+        <v>1235</v>
       </c>
       <c r="C306" t="s">
-        <v>1130</v>
+        <v>1299</v>
       </c>
       <c r="D306" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>1132</v>
+        <v>1300</v>
+      </c>
+      <c r="E306">
+        <v>3</v>
       </c>
       <c r="F306" t="s">
-        <v>1133</v>
+        <v>1301</v>
       </c>
       <c r="G306">
-        <v>25972421</v>
+        <v>30709819</v>
       </c>
       <c r="H306">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>640</v>
+        <v>1235</v>
       </c>
       <c r="C307" t="s">
         <v>1257</v>
@@ -13106,284 +12964,290 @@
       <c r="D307" t="s">
         <v>1258</v>
       </c>
-      <c r="E307" t="s">
+      <c r="E307">
+        <v>4</v>
+      </c>
+      <c r="F307" t="s">
         <v>1259</v>
       </c>
-      <c r="F307" t="s">
+      <c r="G307">
+        <v>30709819</v>
+      </c>
+      <c r="H307">
+        <v>300268</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E308">
+        <v>5</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G308">
+        <v>30709819</v>
+      </c>
+      <c r="H308">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E309">
+        <v>6</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G309">
+        <v>30709819</v>
+      </c>
+      <c r="H309">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E310">
+        <v>7</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G310">
+        <v>30709819</v>
+      </c>
+      <c r="H310">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E311">
+        <v>8</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G311">
+        <v>30709819</v>
+      </c>
+      <c r="H311">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E312">
+        <v>9</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G312">
+        <v>30709819</v>
+      </c>
+      <c r="H312">
+        <v>621</v>
+      </c>
+      <c r="J312" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E313">
+        <v>11</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G313">
+        <v>30709819</v>
+      </c>
+      <c r="H313">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E314">
+        <v>12</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G314">
+        <v>30709819</v>
+      </c>
+      <c r="H314">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E315">
+        <v>13</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G315">
+        <v>30709819</v>
+      </c>
+      <c r="H315">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E316">
+        <v>14</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G316">
+        <v>30709819</v>
+      </c>
+      <c r="H316">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E317">
+        <v>15</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G317">
+        <v>30709819</v>
+      </c>
+      <c r="H317">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C318" t="s">
         <v>1260</v>
       </c>
-      <c r="G307">
-        <v>25972421</v>
-      </c>
-      <c r="H307">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>640</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F308" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G308">
-        <v>25972421</v>
-      </c>
-      <c r="H308">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>640</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D309" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E309" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F309" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G309">
-        <v>25972421</v>
-      </c>
-      <c r="H309">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>640</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D310" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F310" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G310">
-        <v>25972421</v>
-      </c>
-      <c r="H310">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>640</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D311" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F311" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G311">
-        <v>25972421</v>
-      </c>
-      <c r="H311">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>640</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D312" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F312" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G312">
-        <v>25972421</v>
-      </c>
-      <c r="H312">
-        <v>1581707</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>640</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F313" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G313">
-        <v>25972421</v>
-      </c>
-      <c r="H313">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>640</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F314" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G314">
-        <v>25972421</v>
-      </c>
-      <c r="H314">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>640</v>
-      </c>
-      <c r="C315" t="s">
-        <v>959</v>
-      </c>
-      <c r="D315" t="s">
-        <v>960</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="F315" t="s">
-        <v>958</v>
-      </c>
-      <c r="G315">
-        <v>25972421</v>
-      </c>
-      <c r="H315">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>640</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D316" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F316" t="s">
-        <v>1157</v>
-      </c>
-      <c r="G316">
-        <v>25972421</v>
-      </c>
-      <c r="H316">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>640</v>
-      </c>
-      <c r="C317" t="s">
+      <c r="D318" t="s">
         <v>1261</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E318">
+        <v>16</v>
+      </c>
+      <c r="F318" t="s">
         <v>1262</v>
       </c>
-      <c r="F317" t="s">
+      <c r="G318">
+        <v>30709819</v>
+      </c>
+      <c r="H318">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C319" t="s">
         <v>1263</v>
       </c>
-      <c r="G317">
-        <v>25972421</v>
-      </c>
-      <c r="H317">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>640</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F318" t="s">
-        <v>647</v>
-      </c>
-      <c r="G318">
-        <v>25972421</v>
-      </c>
-      <c r="H318">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1306</v>
-      </c>
       <c r="D319" t="s">
-        <v>1307</v>
+        <v>1264</v>
       </c>
       <c r="E319">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F319" t="s">
-        <v>1308</v>
+        <v>1265</v>
       </c>
       <c r="G319">
         <v>30709819</v>
@@ -13392,93 +13256,93 @@
         <v>621</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1305</v>
+        <v>1266</v>
       </c>
       <c r="C320" t="s">
-        <v>1309</v>
+        <v>1267</v>
       </c>
       <c r="D320" t="s">
-        <v>1310</v>
+        <v>1268</v>
       </c>
       <c r="E320">
         <v>6</v>
       </c>
       <c r="F320" t="s">
-        <v>1311</v>
+        <v>1269</v>
       </c>
       <c r="G320">
         <v>30709819</v>
       </c>
       <c r="H320">
-        <v>621</v>
+        <v>623</v>
+      </c>
+      <c r="J320" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1305</v>
+        <v>1249</v>
       </c>
       <c r="C321" t="s">
-        <v>1312</v>
+        <v>1293</v>
       </c>
       <c r="D321" t="s">
-        <v>1313</v>
+        <v>1294</v>
       </c>
       <c r="E321">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F321" t="s">
-        <v>1314</v>
+        <v>1295</v>
       </c>
       <c r="G321">
         <v>30709819</v>
       </c>
       <c r="H321">
-        <v>621</v>
-      </c>
-      <c r="J321" t="s">
-        <v>1315</v>
+        <v>622</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1305</v>
+        <v>1249</v>
       </c>
       <c r="C322" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="D322" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="E322">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F322" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="G322">
         <v>30709819</v>
       </c>
       <c r="H322">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1319</v>
+        <v>1249</v>
       </c>
       <c r="C323" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="D323" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
       <c r="E323">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F323" t="s">
-        <v>1322</v>
+        <v>1074</v>
       </c>
       <c r="G323">
         <v>30709819</v>
@@ -13486,192 +13350,192 @@
       <c r="H323">
         <v>622</v>
       </c>
-      <c r="I323">
-        <v>108660</v>
-      </c>
-      <c r="J323" t="s">
-        <v>1323</v>
-      </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1305</v>
+        <v>1249</v>
       </c>
       <c r="C324" t="s">
-        <v>1324</v>
+        <v>1286</v>
       </c>
       <c r="D324" t="s">
-        <v>1325</v>
+        <v>1287</v>
       </c>
       <c r="E324">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F324" t="s">
-        <v>1326</v>
+        <v>780</v>
       </c>
       <c r="G324">
         <v>30709819</v>
       </c>
       <c r="H324">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1305</v>
+        <v>1249</v>
       </c>
       <c r="C325" t="s">
-        <v>1327</v>
+        <v>1250</v>
       </c>
       <c r="D325" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E325" t="s">
-        <v>13</v>
+        <v>1251</v>
+      </c>
+      <c r="E325">
+        <v>7</v>
       </c>
       <c r="F325" t="s">
-        <v>1329</v>
+        <v>1252</v>
       </c>
       <c r="G325">
         <v>30709819</v>
       </c>
       <c r="H325">
-        <v>621</v>
+        <v>622</v>
+      </c>
+      <c r="I325">
+        <v>108660</v>
+      </c>
+      <c r="J325" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1305</v>
+        <v>1249</v>
       </c>
       <c r="C326" t="s">
-        <v>1330</v>
+        <v>1274</v>
       </c>
       <c r="D326" t="s">
-        <v>1331</v>
+        <v>1275</v>
       </c>
       <c r="E326">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F326" t="s">
-        <v>1332</v>
+        <v>1276</v>
       </c>
       <c r="G326">
         <v>30709819</v>
       </c>
       <c r="H326">
-        <v>300268</v>
+        <v>622</v>
+      </c>
+      <c r="I326">
+        <v>11557</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1305</v>
+        <v>1249</v>
       </c>
       <c r="C327" t="s">
-        <v>1333</v>
+        <v>1314</v>
       </c>
       <c r="D327" t="s">
-        <v>1334</v>
+        <v>1315</v>
       </c>
       <c r="E327">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F327" t="s">
-        <v>1335</v>
+        <v>1316</v>
       </c>
       <c r="G327">
         <v>30709819</v>
       </c>
       <c r="H327">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1305</v>
+        <v>1249</v>
       </c>
       <c r="C328" t="s">
-        <v>1336</v>
+        <v>1288</v>
       </c>
       <c r="D328" t="s">
-        <v>1337</v>
+        <v>1289</v>
       </c>
       <c r="E328">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>1338</v>
+        <v>1290</v>
       </c>
       <c r="G328">
         <v>30709819</v>
       </c>
       <c r="H328">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1339</v>
+        <v>1249</v>
       </c>
       <c r="C329" t="s">
-        <v>1340</v>
+        <v>1283</v>
       </c>
       <c r="D329" t="s">
-        <v>1341</v>
+        <v>1284</v>
       </c>
       <c r="E329">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F329" t="s">
-        <v>1342</v>
+        <v>1285</v>
       </c>
       <c r="G329">
         <v>30709819</v>
       </c>
       <c r="H329">
-        <v>623</v>
-      </c>
-      <c r="J329" t="s">
-        <v>1343</v>
+        <v>622</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1305</v>
+        <v>1249</v>
       </c>
       <c r="C330" t="s">
-        <v>1344</v>
+        <v>1280</v>
       </c>
       <c r="D330" t="s">
-        <v>1345</v>
+        <v>1281</v>
       </c>
       <c r="E330">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F330" t="s">
-        <v>1346</v>
+        <v>1282</v>
       </c>
       <c r="G330">
         <v>30709819</v>
       </c>
       <c r="H330">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1319</v>
+        <v>1249</v>
       </c>
       <c r="C331" t="s">
-        <v>1347</v>
+        <v>1277</v>
       </c>
       <c r="D331" t="s">
-        <v>1348</v>
+        <v>1278</v>
       </c>
       <c r="E331">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F331" t="s">
-        <v>1349</v>
+        <v>1279</v>
       </c>
       <c r="G331">
         <v>30709819</v>
@@ -13679,554 +13543,566 @@
       <c r="H331">
         <v>622</v>
       </c>
-      <c r="I331">
-        <v>11557</v>
-      </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C332" t="s">
-        <v>1350</v>
+        <v>1323</v>
       </c>
       <c r="D332" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E332">
+        <v>1324</v>
+      </c>
+      <c r="E332" t="s">
         <v>13</v>
       </c>
       <c r="F332" t="s">
-        <v>1352</v>
+        <v>1325</v>
       </c>
       <c r="G332">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H332">
-        <v>622</v>
+        <v>287</v>
+      </c>
+      <c r="J332" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C333" t="s">
-        <v>1353</v>
+        <v>1327</v>
       </c>
       <c r="D333" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E333">
-        <v>12</v>
+        <v>1328</v>
+      </c>
+      <c r="E333" t="s">
+        <v>18</v>
       </c>
       <c r="F333" t="s">
-        <v>1355</v>
+        <v>1329</v>
       </c>
       <c r="G333">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H333">
-        <v>622</v>
+        <v>287</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C334" t="s">
-        <v>1356</v>
+        <v>1330</v>
       </c>
       <c r="D334" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E334">
-        <v>11</v>
+        <v>1331</v>
+      </c>
+      <c r="E334" t="s">
+        <v>23</v>
       </c>
       <c r="F334" t="s">
-        <v>1358</v>
+        <v>1332</v>
       </c>
       <c r="G334">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H334">
-        <v>622</v>
+        <v>287</v>
+      </c>
+      <c r="I334">
+        <v>24032</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C335" t="s">
-        <v>1359</v>
+        <v>1333</v>
       </c>
       <c r="D335" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E335">
-        <v>5</v>
+        <v>1334</v>
+      </c>
+      <c r="E335" t="s">
+        <v>28</v>
       </c>
       <c r="F335" t="s">
-        <v>793</v>
+        <v>1335</v>
       </c>
       <c r="G335">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H335">
-        <v>622</v>
+        <v>287</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C336" t="s">
-        <v>1361</v>
+        <v>1336</v>
       </c>
       <c r="D336" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E336">
-        <v>10</v>
+        <v>1337</v>
+      </c>
+      <c r="E336" t="s">
+        <v>33</v>
       </c>
       <c r="F336" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
       <c r="G336">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H336">
-        <v>622</v>
+        <v>287</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C337" t="s">
-        <v>1364</v>
+        <v>1338</v>
       </c>
       <c r="D337" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E337">
-        <v>4</v>
+        <v>1339</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1340</v>
       </c>
       <c r="F337" t="s">
-        <v>1097</v>
+        <v>1341</v>
       </c>
       <c r="G337">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H337">
-        <v>622</v>
+        <v>287</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C338" t="s">
-        <v>1366</v>
+        <v>1342</v>
       </c>
       <c r="D338" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E338">
-        <v>2</v>
+        <v>1343</v>
+      </c>
+      <c r="E338" t="s">
+        <v>53</v>
       </c>
       <c r="F338" t="s">
-        <v>1368</v>
+        <v>1344</v>
       </c>
       <c r="G338">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H338">
-        <v>622</v>
+        <v>287</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="C339" t="s">
-        <v>1369</v>
+        <v>1345</v>
       </c>
       <c r="D339" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E339">
-        <v>12</v>
+        <v>1346</v>
+      </c>
+      <c r="E339" t="s">
+        <v>58</v>
       </c>
       <c r="F339" t="s">
-        <v>1371</v>
+        <v>1347</v>
       </c>
       <c r="G339">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H339">
-        <v>621</v>
+        <v>287</v>
+      </c>
+      <c r="I339">
+        <v>10219</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="C340" t="s">
-        <v>1372</v>
+        <v>1348</v>
       </c>
       <c r="D340" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E340">
-        <v>3</v>
+        <v>1349</v>
+      </c>
+      <c r="E340" t="s">
+        <v>63</v>
       </c>
       <c r="F340" t="s">
-        <v>1374</v>
+        <v>1350</v>
       </c>
       <c r="G340">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H340">
-        <v>621</v>
+        <v>287</v>
+      </c>
+      <c r="I340">
+        <v>31934</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="C341" t="s">
-        <v>1375</v>
+        <v>1351</v>
       </c>
       <c r="D341" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E341">
-        <v>14</v>
+        <v>1352</v>
+      </c>
+      <c r="E341" t="s">
+        <v>69</v>
       </c>
       <c r="F341" t="s">
-        <v>1377</v>
+        <v>1353</v>
       </c>
       <c r="G341">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H341">
-        <v>621</v>
+        <v>287</v>
+      </c>
+      <c r="I341">
+        <v>24042</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="C342" t="s">
-        <v>1378</v>
+        <v>1354</v>
       </c>
       <c r="D342" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E342">
-        <v>7</v>
+        <v>1355</v>
+      </c>
+      <c r="E342" t="s">
+        <v>79</v>
       </c>
       <c r="F342" t="s">
-        <v>1380</v>
+        <v>1356</v>
       </c>
       <c r="G342">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H342">
-        <v>621</v>
+        <v>287</v>
+      </c>
+      <c r="I342" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="C343" t="s">
-        <v>1381</v>
+        <v>1357</v>
       </c>
       <c r="D343" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E343">
-        <v>15</v>
+        <v>1358</v>
+      </c>
+      <c r="E343" t="s">
+        <v>654</v>
       </c>
       <c r="F343" t="s">
-        <v>1383</v>
+        <v>1359</v>
       </c>
       <c r="G343">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H343">
-        <v>621</v>
+        <v>287</v>
+      </c>
+      <c r="I343">
+        <v>6655</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C344" t="s">
-        <v>1384</v>
+        <v>1360</v>
       </c>
       <c r="D344" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E344">
-        <v>3</v>
+        <v>1361</v>
+      </c>
+      <c r="E344" t="s">
+        <v>91</v>
       </c>
       <c r="F344" t="s">
-        <v>1386</v>
+        <v>1329</v>
       </c>
       <c r="G344">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H344">
-        <v>622</v>
+        <v>287</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C345" t="s">
-        <v>1387</v>
+        <v>1362</v>
       </c>
       <c r="D345" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E345">
-        <v>9</v>
+        <v>1363</v>
+      </c>
+      <c r="E345" t="s">
+        <v>96</v>
       </c>
       <c r="F345" t="s">
-        <v>1389</v>
+        <v>1344</v>
       </c>
       <c r="G345">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H345">
-        <v>622</v>
+        <v>287</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="C346" t="s">
-        <v>1390</v>
+        <v>1364</v>
       </c>
       <c r="D346" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E346">
-        <v>2</v>
+        <v>1365</v>
+      </c>
+      <c r="E346" t="s">
+        <v>101</v>
       </c>
       <c r="F346" t="s">
-        <v>1392</v>
+        <v>1329</v>
       </c>
       <c r="G346">
-        <v>30709819</v>
+        <v>25358682</v>
       </c>
       <c r="H346">
-        <v>621</v>
-      </c>
-      <c r="J346" t="s">
-        <v>1393</v>
+        <v>287</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C347" t="s">
-        <v>1396</v>
+        <v>1404</v>
       </c>
       <c r="D347" t="s">
-        <v>1397</v>
+        <v>1405</v>
       </c>
       <c r="E347" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F347" t="s">
-        <v>1398</v>
+        <v>1406</v>
       </c>
       <c r="G347">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H347">
-        <v>287</v>
+        <v>28901</v>
       </c>
       <c r="J347" t="s">
-        <v>1399</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C348" t="s">
-        <v>1400</v>
+        <v>1384</v>
       </c>
       <c r="D348" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
       <c r="E348" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="F348" t="s">
-        <v>1402</v>
+        <v>1386</v>
       </c>
       <c r="G348">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H348">
-        <v>287</v>
+        <v>28901</v>
+      </c>
+      <c r="I348">
+        <v>30351</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C349" t="s">
-        <v>1403</v>
+        <v>1372</v>
       </c>
       <c r="D349" t="s">
-        <v>1404</v>
+        <v>1373</v>
       </c>
       <c r="E349" t="s">
-        <v>23</v>
+        <v>735</v>
       </c>
       <c r="F349" t="s">
-        <v>1405</v>
+        <v>1374</v>
       </c>
       <c r="G349">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H349">
-        <v>287</v>
-      </c>
-      <c r="I349">
-        <v>24032</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C350" t="s">
-        <v>1406</v>
+        <v>1375</v>
       </c>
       <c r="D350" t="s">
-        <v>1407</v>
+        <v>1376</v>
       </c>
       <c r="E350" t="s">
-        <v>28</v>
+        <v>739</v>
       </c>
       <c r="F350" t="s">
-        <v>1408</v>
+        <v>1377</v>
       </c>
       <c r="G350">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H350">
-        <v>287</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C351" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="D351" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="E351" t="s">
-        <v>33</v>
+        <v>696</v>
       </c>
       <c r="F351" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G351">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H351">
-        <v>287</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C352" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
       <c r="D352" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
       <c r="E352" t="s">
-        <v>1413</v>
+        <v>747</v>
       </c>
       <c r="F352" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="G352">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H352">
-        <v>287</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C353" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="D353" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="E353" t="s">
-        <v>53</v>
+        <v>1234</v>
       </c>
       <c r="F353" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="G353">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H353">
-        <v>287</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C354" t="s">
-        <v>1418</v>
+        <v>1378</v>
       </c>
       <c r="D354" t="s">
-        <v>1419</v>
+        <v>1379</v>
       </c>
       <c r="E354" t="s">
-        <v>58</v>
+        <v>1131</v>
       </c>
       <c r="F354" t="s">
-        <v>1420</v>
+        <v>1380</v>
       </c>
       <c r="G354">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H354">
-        <v>287</v>
-      </c>
-      <c r="I354">
-        <v>10219</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C355" t="s">
         <v>1421</v>
@@ -14235,183 +14111,174 @@
         <v>1422</v>
       </c>
       <c r="E355" t="s">
-        <v>63</v>
+        <v>1423</v>
       </c>
       <c r="F355" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="G355">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H355">
-        <v>287</v>
-      </c>
-      <c r="I355">
-        <v>31934</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C356" t="s">
-        <v>1424</v>
+        <v>1366</v>
       </c>
       <c r="D356" t="s">
-        <v>1425</v>
+        <v>1367</v>
       </c>
       <c r="E356" t="s">
-        <v>69</v>
+        <v>755</v>
       </c>
       <c r="F356" t="s">
-        <v>1426</v>
+        <v>1368</v>
       </c>
       <c r="G356">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H356">
-        <v>287</v>
-      </c>
-      <c r="I356">
-        <v>24042</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C357" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D357" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E357" t="s">
-        <v>79</v>
+        <v>765</v>
       </c>
       <c r="F357" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G357">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H357">
-        <v>287</v>
-      </c>
-      <c r="I357" t="s">
-        <v>616</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C358" t="s">
         <v>1394</v>
       </c>
-      <c r="C358" t="s">
-        <v>1430</v>
-      </c>
       <c r="D358" t="s">
-        <v>1431</v>
+        <v>1395</v>
       </c>
       <c r="E358" t="s">
-        <v>656</v>
+        <v>1396</v>
       </c>
       <c r="F358" t="s">
-        <v>1432</v>
+        <v>1397</v>
       </c>
       <c r="G358">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H358">
-        <v>287</v>
-      </c>
-      <c r="I358">
-        <v>6655</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C359" t="s">
-        <v>1433</v>
+        <v>1411</v>
       </c>
       <c r="D359" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="E359" t="s">
-        <v>91</v>
+        <v>767</v>
       </c>
       <c r="F359" t="s">
-        <v>1402</v>
+        <v>1413</v>
       </c>
       <c r="G359">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H359">
-        <v>287</v>
+        <v>28901</v>
+      </c>
+      <c r="I359">
+        <v>26312</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C360" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="D360" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="E360" t="s">
-        <v>96</v>
+        <v>1225</v>
       </c>
       <c r="F360" t="s">
-        <v>1417</v>
+        <v>1427</v>
       </c>
       <c r="G360">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H360">
-        <v>287</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1394</v>
+        <v>1322</v>
       </c>
       <c r="C361" t="s">
-        <v>1437</v>
+        <v>1414</v>
       </c>
       <c r="D361" t="s">
-        <v>1438</v>
+        <v>1415</v>
       </c>
       <c r="E361" t="s">
-        <v>101</v>
+        <v>783</v>
       </c>
       <c r="F361" t="s">
-        <v>1402</v>
+        <v>1416</v>
       </c>
       <c r="G361">
-        <v>25358682</v>
+        <v>23848592</v>
       </c>
       <c r="H361">
-        <v>287</v>
+        <v>28901</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1395</v>
+        <v>1322</v>
       </c>
       <c r="C362" t="s">
-        <v>1439</v>
+        <v>1417</v>
       </c>
       <c r="D362" t="s">
-        <v>1440</v>
+        <v>1418</v>
       </c>
       <c r="E362" t="s">
-        <v>768</v>
+        <v>1419</v>
       </c>
       <c r="F362" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="G362">
         <v>23848592</v>
@@ -14422,19 +14289,19 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>1395</v>
+        <v>1322</v>
       </c>
       <c r="C363" t="s">
-        <v>1442</v>
+        <v>1387</v>
       </c>
       <c r="D363" t="s">
-        <v>1443</v>
+        <v>1388</v>
       </c>
       <c r="E363" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="F363" t="s">
-        <v>1444</v>
+        <v>1389</v>
       </c>
       <c r="G363">
         <v>23848592</v>
@@ -14442,25 +14309,22 @@
       <c r="H363">
         <v>28901</v>
       </c>
-      <c r="I363">
-        <v>20666</v>
-      </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1395</v>
+        <v>1322</v>
       </c>
       <c r="C364" t="s">
-        <v>1445</v>
+        <v>1390</v>
       </c>
       <c r="D364" t="s">
-        <v>1446</v>
+        <v>1391</v>
       </c>
       <c r="E364" t="s">
-        <v>748</v>
+        <v>1392</v>
       </c>
       <c r="F364" t="s">
-        <v>1447</v>
+        <v>1393</v>
       </c>
       <c r="G364">
         <v>23848592</v>
@@ -14471,19 +14335,19 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>1395</v>
+        <v>1322</v>
       </c>
       <c r="C365" t="s">
-        <v>1448</v>
+        <v>1381</v>
       </c>
       <c r="D365" t="s">
-        <v>1449</v>
+        <v>1382</v>
       </c>
       <c r="E365" t="s">
-        <v>752</v>
+        <v>1156</v>
       </c>
       <c r="F365" t="s">
-        <v>1450</v>
+        <v>1383</v>
       </c>
       <c r="G365">
         <v>23848592</v>
@@ -14494,19 +14358,19 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>1395</v>
+        <v>1322</v>
       </c>
       <c r="C366" t="s">
-        <v>1451</v>
+        <v>1369</v>
       </c>
       <c r="D366" t="s">
-        <v>1452</v>
+        <v>1370</v>
       </c>
       <c r="E366" t="s">
-        <v>1158</v>
+        <v>795</v>
       </c>
       <c r="F366" t="s">
-        <v>1453</v>
+        <v>1371</v>
       </c>
       <c r="G366">
         <v>23848592</v>
@@ -14514,411 +14378,8 @@
       <c r="H366">
         <v>28901</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E367" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F367" t="s">
-        <v>1456</v>
-      </c>
-      <c r="G367">
-        <v>23848592</v>
-      </c>
-      <c r="H367">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D368" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E368" t="s">
-        <v>106</v>
-      </c>
-      <c r="F368" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G368">
-        <v>23848592</v>
-      </c>
-      <c r="H368">
-        <v>28901</v>
-      </c>
-      <c r="I368">
-        <v>30351</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D369" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E369" t="s">
-        <v>800</v>
-      </c>
-      <c r="F369" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G369">
-        <v>23848592</v>
-      </c>
-      <c r="H369">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D370" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E370" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F370" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G370">
-        <v>23848592</v>
-      </c>
-      <c r="H370">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D371" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E371" t="s">
-        <v>1469</v>
-      </c>
-      <c r="F371" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G371">
-        <v>23848592</v>
-      </c>
-      <c r="H371">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E372" t="s">
-        <v>760</v>
-      </c>
-      <c r="F372" t="s">
-        <v>1473</v>
-      </c>
-      <c r="G372">
-        <v>23848592</v>
-      </c>
-      <c r="H372">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E373" t="s">
-        <v>709</v>
-      </c>
-      <c r="F373" t="s">
-        <v>1476</v>
-      </c>
-      <c r="G373">
-        <v>23848592</v>
-      </c>
-      <c r="H373">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E374" t="s">
-        <v>58</v>
-      </c>
-      <c r="F374" t="s">
-        <v>1479</v>
-      </c>
-      <c r="G374">
-        <v>23848592</v>
-      </c>
-      <c r="H374">
-        <v>28901</v>
-      </c>
-      <c r="J374" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D375" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E375" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F375" t="s">
-        <v>1483</v>
-      </c>
-      <c r="G375">
-        <v>23848592</v>
-      </c>
-      <c r="H375">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1484</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E376" t="s">
-        <v>780</v>
-      </c>
-      <c r="F376" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G376">
-        <v>23848592</v>
-      </c>
-      <c r="H376">
-        <v>28901</v>
-      </c>
-      <c r="I376">
-        <v>26312</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E377" t="s">
-        <v>796</v>
-      </c>
-      <c r="F377" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G377">
-        <v>23848592</v>
-      </c>
-      <c r="H377">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E378" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F378" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G378">
-        <v>23848592</v>
-      </c>
-      <c r="H378">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E379" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F379" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G379">
-        <v>23848592</v>
-      </c>
-      <c r="H379">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D380" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E380" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F380" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G380">
-        <v>23848592</v>
-      </c>
-      <c r="H380">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C381" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D381" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E381" t="s">
-        <v>778</v>
-      </c>
-      <c r="F381" t="s">
-        <v>1503</v>
-      </c>
-      <c r="G381">
-        <v>23848592</v>
-      </c>
-      <c r="H381">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D382" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E382" t="s">
-        <v>13</v>
-      </c>
-      <c r="F382" t="s">
-        <v>1508</v>
-      </c>
-      <c r="G382">
-        <v>18441119</v>
-      </c>
-      <c r="H382">
-        <v>28141</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E383" t="s">
-        <v>18</v>
-      </c>
-      <c r="F383" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G383">
-        <v>18441119</v>
-      </c>
-      <c r="H383">
-        <v>28141</v>
+      <c r="I366">
+        <v>20666</v>
       </c>
     </row>
   </sheetData>
@@ -14935,8 +14396,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C84" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/protein/68643818"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/protein/560939632"/>
+    <hyperlink ref="C84" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/protein/68643818" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/protein/560939632" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/selected-wzys.xlsx
+++ b/data/selected-wzys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idamei/phd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6B98BF-3C4A-6A45-9B32-75770B0833CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C817F4-194B-7F41-94A6-D746943C4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="760" windowWidth="19740" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selected-wzys" sheetId="1" r:id="rId1"/>
@@ -4646,7 +4646,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4826,12 +4826,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4996,8 +4990,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5357,14 +5351,16 @@
   <dimension ref="A1:J366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -5406,13 +5402,13 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
@@ -5438,7 +5434,7 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
@@ -5467,7 +5463,7 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
@@ -5493,7 +5489,7 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
@@ -5519,7 +5515,7 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
@@ -5545,7 +5541,7 @@
       <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F7" t="s">
@@ -5571,7 +5567,7 @@
       <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F8" t="s">
@@ -5600,7 +5596,7 @@
       <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F9" t="s">
@@ -5626,7 +5622,7 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F10" t="s">
@@ -5652,7 +5648,7 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F11" t="s">
@@ -5681,7 +5677,7 @@
       <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F12" t="s">
@@ -5710,7 +5706,7 @@
       <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F13" t="s">
@@ -5736,7 +5732,7 @@
       <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F14" t="s">
@@ -5762,7 +5758,7 @@
       <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F15" t="s">
@@ -5788,7 +5784,7 @@
       <c r="D16" t="s">
         <v>85</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F16" t="s">
@@ -5814,7 +5810,7 @@
       <c r="D17" t="s">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F17" t="s">
@@ -5843,7 +5839,7 @@
       <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F18" t="s">
@@ -5869,7 +5865,7 @@
       <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F19" t="s">
@@ -5895,7 +5891,7 @@
       <c r="D20" t="s">
         <v>105</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F20" t="s">
@@ -5921,7 +5917,7 @@
       <c r="D21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F21" t="s">
@@ -5947,7 +5943,7 @@
       <c r="D22" t="s">
         <v>115</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F22" t="s">
@@ -5976,7 +5972,7 @@
       <c r="D23" t="s">
         <v>118</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F23" t="s">
@@ -6008,7 +6004,7 @@
       <c r="D24" t="s">
         <v>124</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F24" t="s">
@@ -6034,7 +6030,7 @@
       <c r="D25" t="s">
         <v>129</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F25" t="s">
@@ -6060,7 +6056,7 @@
       <c r="D26" t="s">
         <v>134</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F26" t="s">
@@ -6086,7 +6082,7 @@
       <c r="D27" t="s">
         <v>140</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" t="s">
@@ -6115,7 +6111,7 @@
       <c r="D28" t="s">
         <v>144</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" t="s">
@@ -6144,7 +6140,7 @@
       <c r="D29" t="s">
         <v>149</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>4</v>
       </c>
       <c r="F29" t="s">
@@ -6173,7 +6169,7 @@
       <c r="D30" t="s">
         <v>154</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" t="s">
@@ -6199,7 +6195,7 @@
       <c r="D31" t="s">
         <v>158</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F31" t="s">
@@ -6225,7 +6221,7 @@
       <c r="D32" t="s">
         <v>163</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F32" t="s">
@@ -6254,7 +6250,7 @@
       <c r="D33" t="s">
         <v>174</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>175</v>
       </c>
       <c r="F33" t="s">
@@ -6283,7 +6279,7 @@
       <c r="D34" t="s">
         <v>179</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F34" t="s">
@@ -6312,7 +6308,7 @@
       <c r="D35" t="s">
         <v>185</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F35" t="s">
@@ -6341,7 +6337,7 @@
       <c r="D36" t="s">
         <v>168</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F36" t="s">
@@ -6370,7 +6366,7 @@
       <c r="D37" t="s">
         <v>190</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>8</v>
       </c>
       <c r="F37" t="s">
@@ -6399,7 +6395,7 @@
       <c r="D38" t="s">
         <v>195</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F38" t="s">
@@ -6428,7 +6424,7 @@
       <c r="D39" t="s">
         <v>200</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F39" t="s">
@@ -6457,7 +6453,7 @@
       <c r="D40" t="s">
         <v>206</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F40" t="s">
@@ -6489,7 +6485,7 @@
       <c r="D41" t="s">
         <v>212</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F41" t="s">
@@ -6515,7 +6511,7 @@
       <c r="D42" t="s">
         <v>216</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F42" t="s">
@@ -6541,7 +6537,7 @@
       <c r="D43" t="s">
         <v>221</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F43" t="s">
@@ -6570,7 +6566,7 @@
       <c r="D44" t="s">
         <v>226</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F44" t="s">
@@ -6596,7 +6592,7 @@
       <c r="D45" t="s">
         <v>231</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F45" t="s">
@@ -6622,7 +6618,7 @@
       <c r="D46" t="s">
         <v>235</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F46" t="s">
@@ -6648,7 +6644,7 @@
       <c r="D47" t="s">
         <v>240</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F47" t="s">
@@ -6674,7 +6670,7 @@
       <c r="D48" t="s">
         <v>245</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F48" t="s">
@@ -6700,7 +6696,7 @@
       <c r="D49" t="s">
         <v>250</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F49" t="s">
@@ -6729,7 +6725,7 @@
       <c r="D50" t="s">
         <v>254</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>255</v>
       </c>
       <c r="F50" t="s">
@@ -6755,7 +6751,7 @@
       <c r="D51" t="s">
         <v>257</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>258</v>
       </c>
       <c r="F51" t="s">
@@ -6784,7 +6780,7 @@
       <c r="D52" t="s">
         <v>263</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F52" t="s">
@@ -6813,7 +6809,7 @@
       <c r="D53" t="s">
         <v>269</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F53" t="s">
@@ -6839,7 +6835,7 @@
       <c r="D54" t="s">
         <v>272</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>13</v>
       </c>
       <c r="F54" t="s">
@@ -6868,7 +6864,7 @@
       <c r="D55" t="s">
         <v>276</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>14</v>
       </c>
       <c r="F55" t="s">
@@ -6900,7 +6896,7 @@
       <c r="D56" t="s">
         <v>281</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F56" t="s">
@@ -6926,7 +6922,7 @@
       <c r="D57" t="s">
         <v>286</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F57" t="s">
@@ -6952,7 +6948,7 @@
       <c r="D58" t="s">
         <v>291</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F58" t="s">
@@ -6978,7 +6974,7 @@
       <c r="D59" t="s">
         <v>296</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>297</v>
       </c>
       <c r="F59" t="s">
@@ -7004,7 +7000,7 @@
       <c r="D60" t="s">
         <v>300</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>301</v>
       </c>
       <c r="F60" t="s">
@@ -7030,7 +7026,7 @@
       <c r="D61" t="s">
         <v>305</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>306</v>
       </c>
       <c r="F61" t="s">
@@ -7056,7 +7052,7 @@
       <c r="D62" t="s">
         <v>310</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>311</v>
       </c>
       <c r="F62" t="s">
@@ -7085,7 +7081,7 @@
       <c r="D63" t="s">
         <v>316</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>317</v>
       </c>
       <c r="F63" t="s">
@@ -7114,7 +7110,7 @@
       <c r="D64" t="s">
         <v>322</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>323</v>
       </c>
       <c r="F64" t="s">
@@ -7143,7 +7139,7 @@
       <c r="D65" t="s">
         <v>328</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F65" t="s">
@@ -7172,7 +7168,7 @@
       <c r="D66" t="s">
         <v>334</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>335</v>
       </c>
       <c r="F66" t="s">
@@ -7201,7 +7197,7 @@
       <c r="D67" t="s">
         <v>340</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>341</v>
       </c>
       <c r="F67" t="s">
@@ -7230,7 +7226,7 @@
       <c r="D68" t="s">
         <v>345</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>346</v>
       </c>
       <c r="F68" t="s">
@@ -7259,7 +7255,7 @@
       <c r="D69" t="s">
         <v>350</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>351</v>
       </c>
       <c r="F69" t="s">
@@ -7288,7 +7284,7 @@
       <c r="D70" t="s">
         <v>355</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>356</v>
       </c>
       <c r="F70" t="s">
@@ -7314,7 +7310,7 @@
       <c r="D71" t="s">
         <v>360</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>361</v>
       </c>
       <c r="F71" t="s">
@@ -7340,7 +7336,7 @@
       <c r="D72" t="s">
         <v>363</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>20</v>
       </c>
       <c r="F72" t="s">
@@ -7369,7 +7365,7 @@
       <c r="D73" t="s">
         <v>368</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>21</v>
       </c>
       <c r="F73" t="s">
@@ -7395,7 +7391,7 @@
       <c r="D74" t="s">
         <v>372</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F74" t="s">
@@ -7424,7 +7420,7 @@
       <c r="D75" t="s">
         <v>378</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>379</v>
       </c>
       <c r="F75" t="s">
@@ -7450,7 +7446,7 @@
       <c r="D76" t="s">
         <v>382</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>383</v>
       </c>
       <c r="F76" t="s">
@@ -7479,7 +7475,7 @@
       <c r="D77" t="s">
         <v>387</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>388</v>
       </c>
       <c r="F77" t="s">
@@ -7505,7 +7501,7 @@
       <c r="D78" t="s">
         <v>392</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>393</v>
       </c>
       <c r="F78" t="s">
@@ -7531,7 +7527,7 @@
       <c r="D79" t="s">
         <v>397</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>398</v>
       </c>
       <c r="F79" t="s">
@@ -7557,7 +7553,7 @@
       <c r="D80" t="s">
         <v>402</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>403</v>
       </c>
       <c r="F80" t="s">
@@ -7583,7 +7579,7 @@
       <c r="D81" t="s">
         <v>407</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>408</v>
       </c>
       <c r="F81" t="s">
@@ -7609,7 +7605,7 @@
       <c r="D82" t="s">
         <v>411</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>412</v>
       </c>
       <c r="F82" t="s">
@@ -7635,7 +7631,7 @@
       <c r="D83" t="s">
         <v>416</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>417</v>
       </c>
       <c r="F83" t="s">
@@ -7655,13 +7651,13 @@
       <c r="B84" t="s">
         <v>418</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D84" t="s">
         <v>419</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <v>27</v>
       </c>
       <c r="F84" t="s">
@@ -7687,7 +7683,7 @@
       <c r="D85" t="s">
         <v>422</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>423</v>
       </c>
       <c r="F85" t="s">
@@ -7713,7 +7709,7 @@
       <c r="D86" t="s">
         <v>427</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>428</v>
       </c>
       <c r="F86" t="s">
@@ -7739,7 +7735,7 @@
       <c r="D87" t="s">
         <v>431</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
         <v>29</v>
       </c>
       <c r="F87" t="s">
@@ -7765,7 +7761,7 @@
       <c r="D88" t="s">
         <v>435</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
         <v>31</v>
       </c>
       <c r="F88" t="s">
@@ -7791,7 +7787,7 @@
       <c r="D89" t="s">
         <v>439</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>440</v>
       </c>
       <c r="F89" t="s">
@@ -7820,7 +7816,7 @@
       <c r="D90" t="s">
         <v>445</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>446</v>
       </c>
       <c r="F90" t="s">
@@ -7849,7 +7845,7 @@
       <c r="D91" t="s">
         <v>450</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>451</v>
       </c>
       <c r="F91" t="s">
@@ -7878,7 +7874,7 @@
       <c r="D92" t="s">
         <v>456</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>457</v>
       </c>
       <c r="F92" t="s">
@@ -7907,7 +7903,7 @@
       <c r="D93" t="s">
         <v>461</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>462</v>
       </c>
       <c r="F93" t="s">
@@ -7939,7 +7935,7 @@
       <c r="D94" t="s">
         <v>467</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>468</v>
       </c>
       <c r="F94" t="s">
@@ -7965,7 +7961,7 @@
       <c r="D95" t="s">
         <v>472</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>473</v>
       </c>
       <c r="F95" t="s">
@@ -7991,7 +7987,7 @@
       <c r="D96" t="s">
         <v>477</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <v>34</v>
       </c>
       <c r="F96" t="s">
@@ -8017,7 +8013,7 @@
       <c r="D97" t="s">
         <v>481</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>482</v>
       </c>
       <c r="F97" t="s">
@@ -8043,7 +8039,7 @@
       <c r="D98" t="s">
         <v>486</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>487</v>
       </c>
       <c r="F98" t="s">
@@ -8069,7 +8065,7 @@
       <c r="D99" t="s">
         <v>491</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F99" t="s">
@@ -8098,7 +8094,7 @@
       <c r="D100" t="s">
         <v>497</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F100" t="s">
@@ -8124,7 +8120,7 @@
       <c r="D101" t="s">
         <v>502</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <v>36</v>
       </c>
       <c r="F101" t="s">
@@ -8150,7 +8146,7 @@
       <c r="D102" t="s">
         <v>506</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2">
         <v>38</v>
       </c>
       <c r="F102" t="s">
@@ -8176,7 +8172,7 @@
       <c r="D103" t="s">
         <v>510</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <v>39</v>
       </c>
       <c r="F103" t="s">
@@ -8202,7 +8198,7 @@
       <c r="D104" t="s">
         <v>514</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2">
         <v>40</v>
       </c>
       <c r="F104" t="s">
@@ -8228,7 +8224,7 @@
       <c r="D105" t="s">
         <v>518</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>519</v>
       </c>
       <c r="F105" t="s">
@@ -8254,7 +8250,7 @@
       <c r="D106" t="s">
         <v>522</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="2" t="s">
         <v>523</v>
       </c>
       <c r="F106" t="s">
@@ -8280,7 +8276,7 @@
       <c r="D107" t="s">
         <v>527</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
         <v>42</v>
       </c>
       <c r="F107" t="s">
@@ -8309,7 +8305,7 @@
       <c r="D108" t="s">
         <v>531</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <v>43</v>
       </c>
       <c r="F108" t="s">
@@ -8335,7 +8331,7 @@
       <c r="D109" t="s">
         <v>535</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <v>44</v>
       </c>
       <c r="F109" t="s">
@@ -8361,7 +8357,7 @@
       <c r="D110" t="s">
         <v>538</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
         <v>45</v>
       </c>
       <c r="F110" t="s">
@@ -8390,7 +8386,7 @@
       <c r="D111" t="s">
         <v>543</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
         <v>46</v>
       </c>
       <c r="F111" t="s">
@@ -8416,7 +8412,7 @@
       <c r="D112" t="s">
         <v>547</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>548</v>
       </c>
       <c r="F112" t="s">
@@ -8445,7 +8441,7 @@
       <c r="D113" t="s">
         <v>553</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>554</v>
       </c>
       <c r="F113" t="s">
@@ -8474,7 +8470,7 @@
       <c r="D114" t="s">
         <v>559</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2">
         <v>48</v>
       </c>
       <c r="F114" t="s">
@@ -8497,7 +8493,7 @@
       <c r="D115" t="s">
         <v>563</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>564</v>
       </c>
       <c r="F115" t="s">
@@ -8520,7 +8516,7 @@
       <c r="D116" t="s">
         <v>567</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="2" t="s">
         <v>568</v>
       </c>
       <c r="F116" t="s">
@@ -8543,7 +8539,7 @@
       <c r="D117" t="s">
         <v>571</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="2" t="s">
         <v>572</v>
       </c>
       <c r="F117" t="s">
@@ -8566,7 +8562,7 @@
       <c r="D118" t="s">
         <v>575</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="2" t="s">
         <v>576</v>
       </c>
       <c r="F118" t="s">
@@ -8589,7 +8585,7 @@
       <c r="D119" t="s">
         <v>578</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="2" t="s">
         <v>579</v>
       </c>
       <c r="F119" t="s">
@@ -8612,7 +8608,7 @@
       <c r="D120" t="s">
         <v>582</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="2" t="s">
         <v>583</v>
       </c>
       <c r="F120" t="s">
@@ -8635,7 +8631,7 @@
       <c r="D121" t="s">
         <v>586</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="2" t="s">
         <v>587</v>
       </c>
       <c r="F121" t="s">
@@ -8658,7 +8654,7 @@
       <c r="D122" t="s">
         <v>590</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="2" t="s">
         <v>591</v>
       </c>
       <c r="F122" t="s">
@@ -8681,7 +8677,7 @@
       <c r="D123" t="s">
         <v>594</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="2" t="s">
         <v>595</v>
       </c>
       <c r="F123" t="s">
@@ -8704,7 +8700,7 @@
       <c r="D124" t="s">
         <v>597</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
         <v>598</v>
       </c>
       <c r="F124" t="s">
@@ -8727,7 +8723,7 @@
       <c r="D125" t="s">
         <v>601</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="2" t="s">
         <v>602</v>
       </c>
       <c r="F125" t="s">
@@ -8750,7 +8746,7 @@
       <c r="D126" t="s">
         <v>605</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="2" t="s">
         <v>606</v>
       </c>
       <c r="F126" t="s">
@@ -8773,7 +8769,7 @@
       <c r="D127" t="s">
         <v>609</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="2" t="s">
         <v>610</v>
       </c>
       <c r="F127" t="s">
@@ -8796,7 +8792,7 @@
       <c r="D128" t="s">
         <v>613</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="2" t="s">
         <v>614</v>
       </c>
       <c r="F128" t="s">
@@ -8822,7 +8818,7 @@
       <c r="D129" t="s">
         <v>618</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="2" t="s">
         <v>619</v>
       </c>
       <c r="F129" t="s">
@@ -8845,7 +8841,7 @@
       <c r="D130" t="s">
         <v>622</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="2" t="s">
         <v>623</v>
       </c>
       <c r="F130" t="s">
@@ -8868,7 +8864,7 @@
       <c r="D131" t="s">
         <v>626</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="2" t="s">
         <v>627</v>
       </c>
       <c r="F131" t="s">
@@ -8891,7 +8887,7 @@
       <c r="D132" t="s">
         <v>630</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="2" t="s">
         <v>631</v>
       </c>
       <c r="F132" t="s">
@@ -8914,7 +8910,7 @@
       <c r="D133" t="s">
         <v>634</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="2" t="s">
         <v>635</v>
       </c>
       <c r="F133" t="s">
@@ -8937,7 +8933,7 @@
       <c r="D134" t="s">
         <v>638</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="2" t="s">
         <v>639</v>
       </c>
       <c r="F134" t="s">
@@ -8960,7 +8956,7 @@
       <c r="D135" t="s">
         <v>1138</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F135" t="s">
@@ -8986,7 +8982,7 @@
       <c r="D136" t="s">
         <v>1436</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F136" t="s">
@@ -9015,7 +9011,7 @@
       <c r="D137" t="s">
         <v>1141</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F137" t="s">
@@ -9038,7 +9034,7 @@
       <c r="D138" t="s">
         <v>1144</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F138" t="s">
@@ -9064,7 +9060,7 @@
       <c r="D139" t="s">
         <v>1147</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F139" t="s">
@@ -9087,7 +9083,7 @@
       <c r="D140" t="s">
         <v>1434</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F140" t="s">
@@ -9113,7 +9109,7 @@
       <c r="D141" t="s">
         <v>1151</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F141" t="s">
@@ -9136,7 +9132,7 @@
       <c r="D142" t="s">
         <v>1154</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F142" t="s">
@@ -9159,7 +9155,7 @@
       <c r="D143" t="s">
         <v>642</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F143" t="s">
@@ -9182,7 +9178,7 @@
       <c r="D144" t="s">
         <v>645</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F144" t="s">
@@ -9205,7 +9201,7 @@
       <c r="D145" t="s">
         <v>1438</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F145" t="s">
@@ -9228,7 +9224,7 @@
       <c r="D146" t="s">
         <v>650</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F146" t="s">
@@ -9251,7 +9247,7 @@
       <c r="D147" t="s">
         <v>653</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="2" t="s">
         <v>654</v>
       </c>
       <c r="F147" t="s">
@@ -9277,7 +9273,7 @@
       <c r="D148" t="s">
         <v>1231</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F148" t="s">
@@ -9300,7 +9296,7 @@
       <c r="D149" t="s">
         <v>664</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="2" t="s">
         <v>665</v>
       </c>
       <c r="F149" t="s">
@@ -9323,7 +9319,7 @@
       <c r="D150" t="s">
         <v>1203</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="2" t="s">
         <v>1204</v>
       </c>
       <c r="F150" t="s">
@@ -9346,7 +9342,7 @@
       <c r="D151" t="s">
         <v>668</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F151" t="s">
@@ -9369,7 +9365,7 @@
       <c r="D152" t="s">
         <v>1485</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F152" t="s">
@@ -9395,7 +9391,7 @@
       <c r="D153" t="s">
         <v>673</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F153" t="s">
@@ -9418,7 +9414,7 @@
       <c r="D154" t="s">
         <v>676</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F154" t="s">
@@ -9441,7 +9437,7 @@
       <c r="D155" t="s">
         <v>679</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F155" t="s">
@@ -9464,7 +9460,7 @@
       <c r="D156" t="s">
         <v>682</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F156" t="s">
@@ -9490,7 +9486,7 @@
       <c r="D157" t="s">
         <v>685</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F157" t="s">
@@ -9513,7 +9509,7 @@
       <c r="D158" t="s">
         <v>1184</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F158" t="s">
@@ -9536,7 +9532,7 @@
       <c r="D159" t="s">
         <v>688</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F159" t="s">
@@ -9559,7 +9555,7 @@
       <c r="D160" t="s">
         <v>691</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="2" t="s">
         <v>692</v>
       </c>
       <c r="F160" t="s">
@@ -9582,7 +9578,7 @@
       <c r="D161" t="s">
         <v>1440</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="2" t="s">
         <v>694</v>
       </c>
       <c r="F161" t="s">
@@ -9605,7 +9601,7 @@
       <c r="D162" t="s">
         <v>698</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="2" t="s">
         <v>699</v>
       </c>
       <c r="F162" t="s">
@@ -9628,7 +9624,7 @@
       <c r="D163" t="s">
         <v>702</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="2" t="s">
         <v>703</v>
       </c>
       <c r="F163" t="s">
@@ -9651,7 +9647,7 @@
       <c r="D164" t="s">
         <v>706</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="2" t="s">
         <v>707</v>
       </c>
       <c r="F164" t="s">
@@ -9674,7 +9670,7 @@
       <c r="D165" t="s">
         <v>710</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" s="2" t="s">
         <v>711</v>
       </c>
       <c r="F165" t="s">
@@ -9697,7 +9693,7 @@
       <c r="D166" t="s">
         <v>714</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="2" t="s">
         <v>715</v>
       </c>
       <c r="F166" t="s">
@@ -9720,7 +9716,7 @@
       <c r="D167" t="s">
         <v>718</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="2" t="s">
         <v>719</v>
       </c>
       <c r="F167" t="s">
@@ -9743,7 +9739,7 @@
       <c r="D168" t="s">
         <v>722</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="2" t="s">
         <v>723</v>
       </c>
       <c r="F168" t="s">
@@ -9766,7 +9762,7 @@
       <c r="D169" t="s">
         <v>726</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="2" t="s">
         <v>727</v>
       </c>
       <c r="F169" t="s">
@@ -9789,7 +9785,7 @@
       <c r="D170" t="s">
         <v>730</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" s="2" t="s">
         <v>731</v>
       </c>
       <c r="F170" t="s">
@@ -9812,7 +9808,7 @@
       <c r="D171" t="s">
         <v>734</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" s="2" t="s">
         <v>735</v>
       </c>
       <c r="F171" t="s">
@@ -9835,7 +9831,7 @@
       <c r="D172" t="s">
         <v>738</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" s="2" t="s">
         <v>739</v>
       </c>
       <c r="F172" t="s">
@@ -9858,7 +9854,7 @@
       <c r="D173" t="s">
         <v>742</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E173" s="2" t="s">
         <v>743</v>
       </c>
       <c r="F173" t="s">
@@ -9881,7 +9877,7 @@
       <c r="D174" t="s">
         <v>1442</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E174" s="2" t="s">
         <v>696</v>
       </c>
       <c r="F174" t="s">
@@ -9904,7 +9900,7 @@
       <c r="D175" t="s">
         <v>746</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E175" s="2" t="s">
         <v>747</v>
       </c>
       <c r="F175" t="s">
@@ -9927,7 +9923,7 @@
       <c r="D176" t="s">
         <v>1233</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E176" s="2" t="s">
         <v>1234</v>
       </c>
       <c r="F176" t="s">
@@ -9950,7 +9946,7 @@
       <c r="D177" t="s">
         <v>1133</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E177" s="2" t="s">
         <v>1131</v>
       </c>
       <c r="F177" t="s">
@@ -9973,7 +9969,7 @@
       <c r="D178" t="s">
         <v>750</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E178" s="2" t="s">
         <v>751</v>
       </c>
       <c r="F178" t="s">
@@ -9996,7 +9992,7 @@
       <c r="D179" t="s">
         <v>754</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" s="2" t="s">
         <v>755</v>
       </c>
       <c r="F179" t="s">
@@ -10019,7 +10015,7 @@
       <c r="D180" t="s">
         <v>758</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" s="2" t="s">
         <v>759</v>
       </c>
       <c r="F180" t="s">
@@ -10042,7 +10038,7 @@
       <c r="D181" t="s">
         <v>1199</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" s="2" t="s">
         <v>1200</v>
       </c>
       <c r="F181" t="s">
@@ -10065,7 +10061,7 @@
       <c r="D182" t="s">
         <v>764</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" s="2" t="s">
         <v>765</v>
       </c>
       <c r="F182" t="s">
@@ -10088,7 +10084,7 @@
       <c r="D183" t="s">
         <v>1443</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E183" s="2" t="s">
         <v>767</v>
       </c>
       <c r="F183" t="s">
@@ -10111,7 +10107,7 @@
       <c r="D184" t="s">
         <v>770</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" s="2" t="s">
         <v>771</v>
       </c>
       <c r="F184" t="s">
@@ -10134,7 +10130,7 @@
       <c r="D185" t="s">
         <v>1446</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E185" s="2" t="s">
         <v>1135</v>
       </c>
       <c r="F185" t="s">
@@ -10157,7 +10153,7 @@
       <c r="D186" t="s">
         <v>774</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" s="2" t="s">
         <v>775</v>
       </c>
       <c r="F186" t="s">
@@ -10183,7 +10179,7 @@
       <c r="D187" t="s">
         <v>778</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" s="2" t="s">
         <v>779</v>
       </c>
       <c r="F187" t="s">
@@ -10209,7 +10205,7 @@
       <c r="D188" t="s">
         <v>782</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E188" s="2" t="s">
         <v>783</v>
       </c>
       <c r="F188" t="s">
@@ -10232,7 +10228,7 @@
       <c r="D189" t="s">
         <v>786</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" s="2" t="s">
         <v>787</v>
       </c>
       <c r="F189" t="s">
@@ -10255,7 +10251,7 @@
       <c r="D190" t="s">
         <v>1448</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" s="2" t="s">
         <v>1156</v>
       </c>
       <c r="F190" t="s">
@@ -10278,7 +10274,7 @@
       <c r="D191" t="s">
         <v>790</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" s="2" t="s">
         <v>791</v>
       </c>
       <c r="F191" t="s">
@@ -10301,7 +10297,7 @@
       <c r="D192" t="s">
         <v>794</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" s="2" t="s">
         <v>795</v>
       </c>
       <c r="F192" t="s">
@@ -10324,7 +10320,7 @@
       <c r="D193" t="s">
         <v>1218</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="F193" t="s">
@@ -10347,7 +10343,7 @@
       <c r="D194" t="s">
         <v>1210</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E194" s="2" t="s">
         <v>1211</v>
       </c>
       <c r="F194" t="s">
@@ -10370,7 +10366,7 @@
       <c r="D195" t="s">
         <v>798</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" s="2" t="s">
         <v>799</v>
       </c>
       <c r="F195" t="s">
@@ -10393,7 +10389,7 @@
       <c r="D196" t="s">
         <v>1450</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E196" s="2" t="s">
         <v>801</v>
       </c>
       <c r="F196" t="s">
@@ -10416,7 +10412,7 @@
       <c r="D197" t="s">
         <v>806</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E197" s="2" t="s">
         <v>807</v>
       </c>
       <c r="F197" t="s">
@@ -10439,7 +10435,7 @@
       <c r="D198" t="s">
         <v>658</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E198" s="2" t="s">
         <v>659</v>
       </c>
       <c r="F198" t="s">
@@ -10462,7 +10458,7 @@
       <c r="D199" t="s">
         <v>810</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199" s="2" t="s">
         <v>811</v>
       </c>
       <c r="F199" t="s">
@@ -10485,7 +10481,7 @@
       <c r="D200" t="s">
         <v>814</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="2" t="s">
         <v>815</v>
       </c>
       <c r="F200" t="s">
@@ -10511,7 +10507,7 @@
       <c r="D201" t="s">
         <v>818</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E201" s="2" t="s">
         <v>819</v>
       </c>
       <c r="F201" t="s">
@@ -10534,7 +10530,7 @@
       <c r="D202" t="s">
         <v>1214</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E202" s="2" t="s">
         <v>656</v>
       </c>
       <c r="F202" t="s">
@@ -10557,7 +10553,7 @@
       <c r="D203" t="s">
         <v>822</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E203" s="2" t="s">
         <v>823</v>
       </c>
       <c r="F203" t="s">
@@ -10580,7 +10576,7 @@
       <c r="D204" t="s">
         <v>826</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E204" s="2" t="s">
         <v>827</v>
       </c>
       <c r="F204" t="s">
@@ -10603,7 +10599,7 @@
       <c r="D205" t="s">
         <v>830</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="E205" s="2" t="s">
         <v>831</v>
       </c>
       <c r="F205" t="s">
@@ -10629,7 +10625,7 @@
       <c r="D206" t="s">
         <v>1452</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E206" s="2" t="s">
         <v>833</v>
       </c>
       <c r="F206" t="s">
@@ -10652,7 +10648,7 @@
       <c r="D207" t="s">
         <v>836</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E207" s="2" t="s">
         <v>837</v>
       </c>
       <c r="F207" t="s">
@@ -10675,7 +10671,7 @@
       <c r="D208" t="s">
         <v>840</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E208" s="2" t="s">
         <v>841</v>
       </c>
       <c r="F208" t="s">
@@ -10698,7 +10694,7 @@
       <c r="D209" t="s">
         <v>844</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E209" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F209" t="s">
@@ -10721,7 +10717,7 @@
       <c r="D210" t="s">
         <v>848</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E210" s="2" t="s">
         <v>849</v>
       </c>
       <c r="F210" t="s">
@@ -10744,7 +10740,7 @@
       <c r="D211" t="s">
         <v>852</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E211" s="2" t="s">
         <v>853</v>
       </c>
       <c r="F211" t="s">
@@ -10770,7 +10766,7 @@
       <c r="D212" t="s">
         <v>857</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="E212" s="2" t="s">
         <v>858</v>
       </c>
       <c r="F212" t="s">
@@ -10793,7 +10789,7 @@
       <c r="D213" t="s">
         <v>861</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E213" s="2" t="s">
         <v>862</v>
       </c>
       <c r="F213" t="s">
@@ -10816,7 +10812,7 @@
       <c r="D214" t="s">
         <v>865</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E214" s="2" t="s">
         <v>866</v>
       </c>
       <c r="F214" t="s">
@@ -10839,7 +10835,7 @@
       <c r="D215" t="s">
         <v>869</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" s="2" t="s">
         <v>870</v>
       </c>
       <c r="F215" t="s">
@@ -10862,7 +10858,7 @@
       <c r="D216" t="s">
         <v>873</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E216" s="2" t="s">
         <v>874</v>
       </c>
       <c r="F216" t="s">
@@ -10885,7 +10881,7 @@
       <c r="D217" t="s">
         <v>877</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E217" s="2" t="s">
         <v>878</v>
       </c>
       <c r="F217" t="s">
@@ -10908,7 +10904,7 @@
       <c r="D218" t="s">
         <v>881</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="E218" s="2" t="s">
         <v>882</v>
       </c>
       <c r="F218" t="s">
@@ -10931,7 +10927,7 @@
       <c r="D219" t="s">
         <v>885</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="E219" s="2" t="s">
         <v>886</v>
       </c>
       <c r="F219" t="s">
@@ -10954,7 +10950,7 @@
       <c r="D220" t="s">
         <v>1159</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E220" s="2" t="s">
         <v>1160</v>
       </c>
       <c r="F220" t="s">
@@ -10977,7 +10973,7 @@
       <c r="D221" t="s">
         <v>1454</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="E221" s="2" t="s">
         <v>1190</v>
       </c>
       <c r="F221" t="s">
@@ -11000,7 +10996,7 @@
       <c r="D222" t="s">
         <v>889</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E222" s="2" t="s">
         <v>890</v>
       </c>
       <c r="F222" t="s">
@@ -11023,7 +11019,7 @@
       <c r="D223" t="s">
         <v>893</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E223" s="2" t="s">
         <v>894</v>
       </c>
       <c r="F223" t="s">
@@ -11046,7 +11042,7 @@
       <c r="D224" t="s">
         <v>1456</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="E224" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F224" t="s">
@@ -11069,7 +11065,7 @@
       <c r="D225" t="s">
         <v>897</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="E225" s="2" t="s">
         <v>898</v>
       </c>
       <c r="F225" t="s">
@@ -11092,7 +11088,7 @@
       <c r="D226" t="s">
         <v>901</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="E226" s="2" t="s">
         <v>902</v>
       </c>
       <c r="F226" t="s">
@@ -11118,7 +11114,7 @@
       <c r="D227" t="s">
         <v>905</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="E227" s="2" t="s">
         <v>906</v>
       </c>
       <c r="F227" t="s">
@@ -11141,7 +11137,7 @@
       <c r="D228" t="s">
         <v>909</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="E228" s="2" t="s">
         <v>910</v>
       </c>
       <c r="F228" t="s">
@@ -11164,7 +11160,7 @@
       <c r="D229" t="s">
         <v>1458</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="E229" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F229" t="s">
@@ -11187,7 +11183,7 @@
       <c r="D230" t="s">
         <v>913</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E230" s="2" t="s">
         <v>914</v>
       </c>
       <c r="F230" t="s">
@@ -11210,7 +11206,7 @@
       <c r="D231" t="s">
         <v>1460</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E231" s="2" t="s">
         <v>916</v>
       </c>
       <c r="F231" t="s">
@@ -11233,7 +11229,7 @@
       <c r="D232" t="s">
         <v>919</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="E232" s="2" t="s">
         <v>920</v>
       </c>
       <c r="F232" t="s">
@@ -11256,7 +11252,7 @@
       <c r="D233" t="s">
         <v>923</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="E233" s="2" t="s">
         <v>924</v>
       </c>
       <c r="F233" t="s">
@@ -11279,7 +11275,7 @@
       <c r="D234" t="s">
         <v>927</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="E234" s="2" t="s">
         <v>928</v>
       </c>
       <c r="F234" t="s">
@@ -11302,7 +11298,7 @@
       <c r="D235" t="s">
         <v>931</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E235" s="2" t="s">
         <v>932</v>
       </c>
       <c r="F235" t="s">
@@ -11325,7 +11321,7 @@
       <c r="D236" t="s">
         <v>1164</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="E236" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="F236" t="s">
@@ -11348,7 +11344,7 @@
       <c r="D237" t="s">
         <v>1462</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="E237" s="2" t="s">
         <v>934</v>
       </c>
       <c r="F237" t="s">
@@ -11371,7 +11367,7 @@
       <c r="D238" t="s">
         <v>937</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E238" s="2" t="s">
         <v>938</v>
       </c>
       <c r="F238" t="s">
@@ -11394,7 +11390,7 @@
       <c r="D239" t="s">
         <v>941</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="E239" s="2" t="s">
         <v>942</v>
       </c>
       <c r="F239" t="s">
@@ -11417,7 +11413,7 @@
       <c r="D240" t="s">
         <v>1195</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E240" s="2" t="s">
         <v>1192</v>
       </c>
       <c r="F240" t="s">
@@ -11440,7 +11436,7 @@
       <c r="D241" t="s">
         <v>1222</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="E241" s="2" t="s">
         <v>944</v>
       </c>
       <c r="F241" t="s">
@@ -11463,7 +11459,7 @@
       <c r="D242" t="s">
         <v>1486</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="E242" s="2" t="s">
         <v>949</v>
       </c>
       <c r="F242" t="s">
@@ -11486,7 +11482,7 @@
       <c r="D243" t="s">
         <v>953</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="E243" s="2" t="s">
         <v>1465</v>
       </c>
       <c r="F243" t="s">
@@ -11509,7 +11505,7 @@
       <c r="D244" t="s">
         <v>1167</v>
       </c>
-      <c r="E244" s="1" t="s">
+      <c r="E244" s="2" t="s">
         <v>1168</v>
       </c>
       <c r="F244" t="s">
@@ -11532,7 +11528,7 @@
       <c r="D245" t="s">
         <v>1464</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="E245" s="2" t="s">
         <v>1170</v>
       </c>
       <c r="F245" t="s">
@@ -11555,7 +11551,7 @@
       <c r="D246" t="s">
         <v>956</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="E246" s="2" t="s">
         <v>1466</v>
       </c>
       <c r="F246" t="s">
@@ -11578,7 +11574,7 @@
       <c r="D247" t="s">
         <v>1224</v>
       </c>
-      <c r="E247" s="1" t="s">
+      <c r="E247" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="F247" t="s">
@@ -11601,7 +11597,7 @@
       <c r="D248" t="s">
         <v>959</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="E248" s="2" t="s">
         <v>960</v>
       </c>
       <c r="F248" t="s">
@@ -11624,7 +11620,7 @@
       <c r="D249" t="s">
         <v>963</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="E249" s="2" t="s">
         <v>964</v>
       </c>
       <c r="F249" t="s">
@@ -11647,7 +11643,7 @@
       <c r="D250" t="s">
         <v>967</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="E250" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F250" t="s">
@@ -11670,7 +11666,7 @@
       <c r="D251" t="s">
         <v>971</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="E251" s="2" t="s">
         <v>972</v>
       </c>
       <c r="F251" t="s">
@@ -11693,7 +11689,7 @@
       <c r="D252" t="s">
         <v>1207</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="E252" s="2" t="s">
         <v>1208</v>
       </c>
       <c r="F252" t="s">
@@ -11716,7 +11712,7 @@
       <c r="D253" t="s">
         <v>1468</v>
       </c>
-      <c r="E253" s="1" t="s">
+      <c r="E253" s="2" t="s">
         <v>648</v>
       </c>
       <c r="F253" t="s">
@@ -11739,7 +11735,7 @@
       <c r="D254" t="s">
         <v>975</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="E254" s="2" t="s">
         <v>976</v>
       </c>
       <c r="F254" t="s">
@@ -11762,7 +11758,7 @@
       <c r="D255" t="s">
         <v>1470</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="E255" s="2" t="s">
         <v>670</v>
       </c>
       <c r="F255" t="s">
@@ -11785,7 +11781,7 @@
       <c r="D256" t="s">
         <v>979</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="E256" s="2" t="s">
         <v>980</v>
       </c>
       <c r="F256" t="s">
@@ -11808,7 +11804,7 @@
       <c r="D257" t="s">
         <v>983</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="E257" s="2" t="s">
         <v>984</v>
       </c>
       <c r="F257" t="s">
@@ -11831,7 +11827,7 @@
       <c r="D258" t="s">
         <v>987</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="E258" s="2" t="s">
         <v>988</v>
       </c>
       <c r="F258" t="s">
@@ -11854,7 +11850,7 @@
       <c r="D259" t="s">
         <v>991</v>
       </c>
-      <c r="E259" s="1" t="s">
+      <c r="E259" s="2" t="s">
         <v>992</v>
       </c>
       <c r="F259" t="s">
@@ -11877,7 +11873,7 @@
       <c r="D260" t="s">
         <v>995</v>
       </c>
-      <c r="E260" s="1" t="s">
+      <c r="E260" s="2" t="s">
         <v>996</v>
       </c>
       <c r="F260" t="s">
@@ -11900,7 +11896,7 @@
       <c r="D261" t="s">
         <v>999</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="E261" s="2" t="s">
         <v>1000</v>
       </c>
       <c r="F261" t="s">
@@ -11923,7 +11919,7 @@
       <c r="D262" t="s">
         <v>1003</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="E262" s="2" t="s">
         <v>1004</v>
       </c>
       <c r="F262" t="s">
@@ -11946,7 +11942,7 @@
       <c r="D263" t="s">
         <v>1472</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="E263" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F263" t="s">
@@ -11969,7 +11965,7 @@
       <c r="D264" t="s">
         <v>1007</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E264" s="2" t="s">
         <v>1008</v>
       </c>
       <c r="F264" t="s">
@@ -11992,7 +11988,7 @@
       <c r="D265" t="s">
         <v>1011</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="E265" s="2" t="s">
         <v>1012</v>
       </c>
       <c r="F265" t="s">
@@ -12015,7 +12011,7 @@
       <c r="D266" t="s">
         <v>1174</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="E266" s="2" t="s">
         <v>1175</v>
       </c>
       <c r="F266" t="s">
@@ -12038,7 +12034,7 @@
       <c r="D267" t="s">
         <v>1015</v>
       </c>
-      <c r="E267" s="1" t="s">
+      <c r="E267" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F267" t="s">
@@ -12061,7 +12057,7 @@
       <c r="D268" t="s">
         <v>1019</v>
       </c>
-      <c r="E268" s="1" t="s">
+      <c r="E268" s="2" t="s">
         <v>1020</v>
       </c>
       <c r="F268" t="s">
@@ -12084,7 +12080,7 @@
       <c r="D269" t="s">
         <v>1474</v>
       </c>
-      <c r="E269" s="1" t="s">
+      <c r="E269" s="2" t="s">
         <v>1177</v>
       </c>
       <c r="F269" t="s">
@@ -12107,7 +12103,7 @@
       <c r="D270" t="s">
         <v>1023</v>
       </c>
-      <c r="E270" s="1" t="s">
+      <c r="E270" s="2" t="s">
         <v>1024</v>
       </c>
       <c r="F270" t="s">
@@ -12130,7 +12126,7 @@
       <c r="D271" t="s">
         <v>1490</v>
       </c>
-      <c r="E271" s="1" t="s">
+      <c r="E271" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="F271" t="s">
@@ -12153,7 +12149,7 @@
       <c r="D272" t="s">
         <v>1028</v>
       </c>
-      <c r="E272" s="1" t="s">
+      <c r="E272" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="F272" t="s">
@@ -12176,7 +12172,7 @@
       <c r="D273" t="s">
         <v>1032</v>
       </c>
-      <c r="E273" s="1" t="s">
+      <c r="E273" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F273" t="s">
@@ -12199,7 +12195,7 @@
       <c r="D274" t="s">
         <v>1036</v>
       </c>
-      <c r="E274" s="1" t="s">
+      <c r="E274" s="2" t="s">
         <v>1037</v>
       </c>
       <c r="F274" t="s">
@@ -12222,7 +12218,7 @@
       <c r="D275" t="s">
         <v>1188</v>
       </c>
-      <c r="E275" s="1" t="s">
+      <c r="E275" s="2" t="s">
         <v>1186</v>
       </c>
       <c r="F275" t="s">
@@ -12245,7 +12241,7 @@
       <c r="D276" t="s">
         <v>1040</v>
       </c>
-      <c r="E276" s="1" t="s">
+      <c r="E276" s="2" t="s">
         <v>1041</v>
       </c>
       <c r="F276" t="s">
@@ -12268,7 +12264,7 @@
       <c r="D277" t="s">
         <v>1044</v>
       </c>
-      <c r="E277" s="1" t="s">
+      <c r="E277" s="2" t="s">
         <v>1045</v>
       </c>
       <c r="F277" t="s">
@@ -12291,7 +12287,7 @@
       <c r="D278" t="s">
         <v>1048</v>
       </c>
-      <c r="E278" s="1" t="s">
+      <c r="E278" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="F278" t="s">
@@ -12314,7 +12310,7 @@
       <c r="D279" t="s">
         <v>1052</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E279" s="2" t="s">
         <v>1053</v>
       </c>
       <c r="F279" t="s">
@@ -12337,7 +12333,7 @@
       <c r="D280" t="s">
         <v>1056</v>
       </c>
-      <c r="E280" s="1" t="s">
+      <c r="E280" s="2" t="s">
         <v>1057</v>
       </c>
       <c r="F280" t="s">
@@ -12360,7 +12356,7 @@
       <c r="D281" t="s">
         <v>1476</v>
       </c>
-      <c r="E281" s="1" t="s">
+      <c r="E281" s="2" t="s">
         <v>950</v>
       </c>
       <c r="F281" t="s">
@@ -12383,7 +12379,7 @@
       <c r="D282" t="s">
         <v>1060</v>
       </c>
-      <c r="E282" s="1" t="s">
+      <c r="E282" s="2" t="s">
         <v>1061</v>
       </c>
       <c r="F282" t="s">
@@ -12406,7 +12402,7 @@
       <c r="D283" t="s">
         <v>1064</v>
       </c>
-      <c r="E283" s="1" t="s">
+      <c r="E283" s="2" t="s">
         <v>1065</v>
       </c>
       <c r="F283" t="s">
@@ -12429,7 +12425,7 @@
       <c r="D284" t="s">
         <v>1068</v>
       </c>
-      <c r="E284" s="1" t="s">
+      <c r="E284" s="2" t="s">
         <v>1069</v>
       </c>
       <c r="F284" t="s">
@@ -12452,7 +12448,7 @@
       <c r="D285" t="s">
         <v>1072</v>
       </c>
-      <c r="E285" s="1" t="s">
+      <c r="E285" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="F285" t="s">
@@ -12475,7 +12471,7 @@
       <c r="D286" t="s">
         <v>1076</v>
       </c>
-      <c r="E286" s="1" t="s">
+      <c r="E286" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="F286" t="s">
@@ -12498,7 +12494,7 @@
       <c r="D287" t="s">
         <v>1080</v>
       </c>
-      <c r="E287" s="1" t="s">
+      <c r="E287" s="2" t="s">
         <v>1081</v>
       </c>
       <c r="F287" t="s">
@@ -12521,7 +12517,7 @@
       <c r="D288" t="s">
         <v>1084</v>
       </c>
-      <c r="E288" s="1" t="s">
+      <c r="E288" s="2" t="s">
         <v>1085</v>
       </c>
       <c r="F288" t="s">
@@ -12544,7 +12540,7 @@
       <c r="D289" t="s">
         <v>1088</v>
       </c>
-      <c r="E289" s="1" t="s">
+      <c r="E289" s="2" t="s">
         <v>1089</v>
       </c>
       <c r="F289" t="s">
@@ -12567,7 +12563,7 @@
       <c r="D290" t="s">
         <v>1092</v>
       </c>
-      <c r="E290" s="1" t="s">
+      <c r="E290" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="F290" t="s">
@@ -12593,7 +12589,7 @@
       <c r="D291" t="s">
         <v>1478</v>
       </c>
-      <c r="E291" s="1" t="s">
+      <c r="E291" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="F291" t="s">
@@ -12616,7 +12612,7 @@
       <c r="D292" t="s">
         <v>1098</v>
       </c>
-      <c r="E292" s="1" t="s">
+      <c r="E292" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="F292" t="s">
@@ -12639,7 +12635,7 @@
       <c r="D293" t="s">
         <v>1102</v>
       </c>
-      <c r="E293" s="1" t="s">
+      <c r="E293" s="2" t="s">
         <v>1103</v>
       </c>
       <c r="F293" t="s">
@@ -12662,7 +12658,7 @@
       <c r="D294" t="s">
         <v>1106</v>
       </c>
-      <c r="E294" s="1" t="s">
+      <c r="E294" s="2" t="s">
         <v>1107</v>
       </c>
       <c r="F294" t="s">
@@ -12685,7 +12681,7 @@
       <c r="D295" t="s">
         <v>1480</v>
       </c>
-      <c r="E295" s="1" t="s">
+      <c r="E295" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="F295" t="s">
@@ -12708,7 +12704,7 @@
       <c r="D296" t="s">
         <v>1110</v>
       </c>
-      <c r="E296" s="1" t="s">
+      <c r="E296" s="2" t="s">
         <v>1111</v>
       </c>
       <c r="F296" t="s">
@@ -12731,7 +12727,7 @@
       <c r="D297" t="s">
         <v>1482</v>
       </c>
-      <c r="E297" s="1" t="s">
+      <c r="E297" s="2" t="s">
         <v>1113</v>
       </c>
       <c r="F297" t="s">
@@ -12754,7 +12750,7 @@
       <c r="D298" t="s">
         <v>1180</v>
       </c>
-      <c r="E298" s="1" t="s">
+      <c r="E298" s="2" t="s">
         <v>1181</v>
       </c>
       <c r="F298" t="s">
@@ -12777,7 +12773,7 @@
       <c r="D299" t="s">
         <v>1116</v>
       </c>
-      <c r="E299" s="1" t="s">
+      <c r="E299" s="2" t="s">
         <v>1117</v>
       </c>
       <c r="F299" t="s">
@@ -12800,7 +12796,7 @@
       <c r="D300" t="s">
         <v>1227</v>
       </c>
-      <c r="E300" s="1" t="s">
+      <c r="E300" s="2" t="s">
         <v>1228</v>
       </c>
       <c r="F300" t="s">
@@ -12823,7 +12819,7 @@
       <c r="D301" t="s">
         <v>1120</v>
       </c>
-      <c r="E301" s="1" t="s">
+      <c r="E301" s="2" t="s">
         <v>1121</v>
       </c>
       <c r="F301" t="s">
@@ -12846,7 +12842,7 @@
       <c r="D302" t="s">
         <v>1124</v>
       </c>
-      <c r="E302" s="1" t="s">
+      <c r="E302" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="F302" t="s">
@@ -12869,7 +12865,7 @@
       <c r="D303" t="s">
         <v>947</v>
       </c>
-      <c r="E303" s="1" t="s">
+      <c r="E303" s="2" t="s">
         <v>948</v>
       </c>
       <c r="F303" t="s">
@@ -12892,7 +12888,7 @@
       <c r="D304" t="s">
         <v>1128</v>
       </c>
-      <c r="E304" s="1" t="s">
+      <c r="E304" s="2" t="s">
         <v>1129</v>
       </c>
       <c r="F304" t="s">
@@ -12915,7 +12911,7 @@
       <c r="D305" t="s">
         <v>1318</v>
       </c>
-      <c r="E305">
+      <c r="E305" s="2">
         <v>2</v>
       </c>
       <c r="F305" t="s">
@@ -12941,7 +12937,7 @@
       <c r="D306" t="s">
         <v>1300</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="2">
         <v>3</v>
       </c>
       <c r="F306" t="s">
@@ -12964,7 +12960,7 @@
       <c r="D307" t="s">
         <v>1258</v>
       </c>
-      <c r="E307">
+      <c r="E307" s="2">
         <v>4</v>
       </c>
       <c r="F307" t="s">
@@ -12987,7 +12983,7 @@
       <c r="D308" t="s">
         <v>1237</v>
       </c>
-      <c r="E308">
+      <c r="E308" s="2">
         <v>5</v>
       </c>
       <c r="F308" t="s">
@@ -13010,7 +13006,7 @@
       <c r="D309" t="s">
         <v>1240</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="2">
         <v>6</v>
       </c>
       <c r="F309" t="s">
@@ -13033,7 +13029,7 @@
       <c r="D310" t="s">
         <v>1306</v>
       </c>
-      <c r="E310">
+      <c r="E310" s="2">
         <v>7</v>
       </c>
       <c r="F310" t="s">
@@ -13056,7 +13052,7 @@
       <c r="D311" t="s">
         <v>1272</v>
       </c>
-      <c r="E311">
+      <c r="E311" s="2">
         <v>8</v>
       </c>
       <c r="F311" t="s">
@@ -13079,7 +13075,7 @@
       <c r="D312" t="s">
         <v>1243</v>
       </c>
-      <c r="E312">
+      <c r="E312" s="2">
         <v>9</v>
       </c>
       <c r="F312" t="s">
@@ -13105,7 +13101,7 @@
       <c r="D313" t="s">
         <v>1255</v>
       </c>
-      <c r="E313">
+      <c r="E313" s="2">
         <v>11</v>
       </c>
       <c r="F313" t="s">
@@ -13128,7 +13124,7 @@
       <c r="D314" t="s">
         <v>1297</v>
       </c>
-      <c r="E314">
+      <c r="E314" s="2">
         <v>12</v>
       </c>
       <c r="F314" t="s">
@@ -13151,7 +13147,7 @@
       <c r="D315" t="s">
         <v>1247</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="2">
         <v>13</v>
       </c>
       <c r="F315" t="s">
@@ -13174,7 +13170,7 @@
       <c r="D316" t="s">
         <v>1303</v>
       </c>
-      <c r="E316">
+      <c r="E316" s="2">
         <v>14</v>
       </c>
       <c r="F316" t="s">
@@ -13197,7 +13193,7 @@
       <c r="D317" t="s">
         <v>1309</v>
       </c>
-      <c r="E317">
+      <c r="E317" s="2">
         <v>15</v>
       </c>
       <c r="F317" t="s">
@@ -13220,7 +13216,7 @@
       <c r="D318" t="s">
         <v>1261</v>
       </c>
-      <c r="E318">
+      <c r="E318" s="2">
         <v>16</v>
       </c>
       <c r="F318" t="s">
@@ -13243,7 +13239,7 @@
       <c r="D319" t="s">
         <v>1264</v>
       </c>
-      <c r="E319">
+      <c r="E319" s="2">
         <v>17</v>
       </c>
       <c r="F319" t="s">
@@ -13266,7 +13262,7 @@
       <c r="D320" t="s">
         <v>1268</v>
       </c>
-      <c r="E320">
+      <c r="E320" s="2">
         <v>6</v>
       </c>
       <c r="F320" t="s">
@@ -13292,7 +13288,7 @@
       <c r="D321" t="s">
         <v>1294</v>
       </c>
-      <c r="E321">
+      <c r="E321" s="2">
         <v>2</v>
       </c>
       <c r="F321" t="s">
@@ -13315,7 +13311,7 @@
       <c r="D322" t="s">
         <v>1312</v>
       </c>
-      <c r="E322">
+      <c r="E322" s="2">
         <v>3</v>
       </c>
       <c r="F322" t="s">
@@ -13338,7 +13334,7 @@
       <c r="D323" t="s">
         <v>1292</v>
       </c>
-      <c r="E323">
+      <c r="E323" s="2">
         <v>4</v>
       </c>
       <c r="F323" t="s">
@@ -13361,7 +13357,7 @@
       <c r="D324" t="s">
         <v>1287</v>
       </c>
-      <c r="E324">
+      <c r="E324" s="2">
         <v>5</v>
       </c>
       <c r="F324" t="s">
@@ -13384,7 +13380,7 @@
       <c r="D325" t="s">
         <v>1251</v>
       </c>
-      <c r="E325">
+      <c r="E325" s="2">
         <v>7</v>
       </c>
       <c r="F325" t="s">
@@ -13413,7 +13409,7 @@
       <c r="D326" t="s">
         <v>1275</v>
       </c>
-      <c r="E326">
+      <c r="E326" s="2">
         <v>8</v>
       </c>
       <c r="F326" t="s">
@@ -13439,7 +13435,7 @@
       <c r="D327" t="s">
         <v>1315</v>
       </c>
-      <c r="E327">
+      <c r="E327" s="2">
         <v>9</v>
       </c>
       <c r="F327" t="s">
@@ -13462,7 +13458,7 @@
       <c r="D328" t="s">
         <v>1289</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="2">
         <v>10</v>
       </c>
       <c r="F328" t="s">
@@ -13485,7 +13481,7 @@
       <c r="D329" t="s">
         <v>1284</v>
       </c>
-      <c r="E329">
+      <c r="E329" s="2">
         <v>11</v>
       </c>
       <c r="F329" t="s">
@@ -13508,7 +13504,7 @@
       <c r="D330" t="s">
         <v>1281</v>
       </c>
-      <c r="E330">
+      <c r="E330" s="2">
         <v>12</v>
       </c>
       <c r="F330" t="s">
@@ -13531,7 +13527,7 @@
       <c r="D331" t="s">
         <v>1278</v>
       </c>
-      <c r="E331">
+      <c r="E331" s="2">
         <v>13</v>
       </c>
       <c r="F331" t="s">
@@ -13554,7 +13550,7 @@
       <c r="D332" t="s">
         <v>1324</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E332" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F332" t="s">
@@ -13580,7 +13576,7 @@
       <c r="D333" t="s">
         <v>1328</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E333" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F333" t="s">
@@ -13603,7 +13599,7 @@
       <c r="D334" t="s">
         <v>1331</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E334" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F334" t="s">
@@ -13629,7 +13625,7 @@
       <c r="D335" t="s">
         <v>1334</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E335" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F335" t="s">
@@ -13652,7 +13648,7 @@
       <c r="D336" t="s">
         <v>1337</v>
       </c>
-      <c r="E336" t="s">
+      <c r="E336" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F336" t="s">
@@ -13675,7 +13671,7 @@
       <c r="D337" t="s">
         <v>1339</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E337" s="2" t="s">
         <v>1340</v>
       </c>
       <c r="F337" t="s">
@@ -13698,7 +13694,7 @@
       <c r="D338" t="s">
         <v>1343</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E338" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F338" t="s">
@@ -13721,7 +13717,7 @@
       <c r="D339" t="s">
         <v>1346</v>
       </c>
-      <c r="E339" t="s">
+      <c r="E339" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F339" t="s">
@@ -13747,7 +13743,7 @@
       <c r="D340" t="s">
         <v>1349</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E340" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F340" t="s">
@@ -13773,7 +13769,7 @@
       <c r="D341" t="s">
         <v>1352</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E341" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F341" t="s">
@@ -13799,7 +13795,7 @@
       <c r="D342" t="s">
         <v>1355</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E342" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F342" t="s">
@@ -13825,7 +13821,7 @@
       <c r="D343" t="s">
         <v>1358</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E343" s="2" t="s">
         <v>654</v>
       </c>
       <c r="F343" t="s">
@@ -13851,7 +13847,7 @@
       <c r="D344" t="s">
         <v>1361</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E344" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F344" t="s">
@@ -13874,7 +13870,7 @@
       <c r="D345" t="s">
         <v>1363</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E345" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F345" t="s">
@@ -13897,7 +13893,7 @@
       <c r="D346" t="s">
         <v>1365</v>
       </c>
-      <c r="E346" t="s">
+      <c r="E346" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F346" t="s">
@@ -13920,7 +13916,7 @@
       <c r="D347" t="s">
         <v>1405</v>
       </c>
-      <c r="E347" t="s">
+      <c r="E347" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F347" t="s">
@@ -13946,7 +13942,7 @@
       <c r="D348" t="s">
         <v>1385</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E348" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F348" t="s">
@@ -13972,7 +13968,7 @@
       <c r="D349" t="s">
         <v>1373</v>
       </c>
-      <c r="E349" t="s">
+      <c r="E349" s="2" t="s">
         <v>735</v>
       </c>
       <c r="F349" t="s">
@@ -13995,7 +13991,7 @@
       <c r="D350" t="s">
         <v>1376</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E350" s="2" t="s">
         <v>739</v>
       </c>
       <c r="F350" t="s">
@@ -14018,7 +14014,7 @@
       <c r="D351" t="s">
         <v>1402</v>
       </c>
-      <c r="E351" t="s">
+      <c r="E351" s="2" t="s">
         <v>696</v>
       </c>
       <c r="F351" t="s">
@@ -14041,7 +14037,7 @@
       <c r="D352" t="s">
         <v>1399</v>
       </c>
-      <c r="E352" t="s">
+      <c r="E352" s="2" t="s">
         <v>747</v>
       </c>
       <c r="F352" t="s">
@@ -14064,7 +14060,7 @@
       <c r="D353" t="s">
         <v>1409</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E353" s="2" t="s">
         <v>1234</v>
       </c>
       <c r="F353" t="s">
@@ -14087,7 +14083,7 @@
       <c r="D354" t="s">
         <v>1379</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E354" s="2" t="s">
         <v>1131</v>
       </c>
       <c r="F354" t="s">
@@ -14110,7 +14106,7 @@
       <c r="D355" t="s">
         <v>1422</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E355" s="2" t="s">
         <v>1423</v>
       </c>
       <c r="F355" t="s">
@@ -14133,7 +14129,7 @@
       <c r="D356" t="s">
         <v>1367</v>
       </c>
-      <c r="E356" t="s">
+      <c r="E356" s="2" t="s">
         <v>755</v>
       </c>
       <c r="F356" t="s">
@@ -14156,7 +14152,7 @@
       <c r="D357" t="s">
         <v>1429</v>
       </c>
-      <c r="E357" t="s">
+      <c r="E357" s="2" t="s">
         <v>765</v>
       </c>
       <c r="F357" t="s">
@@ -14179,7 +14175,7 @@
       <c r="D358" t="s">
         <v>1395</v>
       </c>
-      <c r="E358" t="s">
+      <c r="E358" s="2" t="s">
         <v>1396</v>
       </c>
       <c r="F358" t="s">
@@ -14202,7 +14198,7 @@
       <c r="D359" t="s">
         <v>1412</v>
       </c>
-      <c r="E359" t="s">
+      <c r="E359" s="2" t="s">
         <v>767</v>
       </c>
       <c r="F359" t="s">
@@ -14228,7 +14224,7 @@
       <c r="D360" t="s">
         <v>1426</v>
       </c>
-      <c r="E360" t="s">
+      <c r="E360" s="2" t="s">
         <v>1225</v>
       </c>
       <c r="F360" t="s">
@@ -14251,7 +14247,7 @@
       <c r="D361" t="s">
         <v>1415</v>
       </c>
-      <c r="E361" t="s">
+      <c r="E361" s="2" t="s">
         <v>783</v>
       </c>
       <c r="F361" t="s">
@@ -14274,7 +14270,7 @@
       <c r="D362" t="s">
         <v>1418</v>
       </c>
-      <c r="E362" t="s">
+      <c r="E362" s="2" t="s">
         <v>1419</v>
       </c>
       <c r="F362" t="s">
@@ -14297,7 +14293,7 @@
       <c r="D363" t="s">
         <v>1388</v>
       </c>
-      <c r="E363" t="s">
+      <c r="E363" s="2" t="s">
         <v>787</v>
       </c>
       <c r="F363" t="s">
@@ -14320,7 +14316,7 @@
       <c r="D364" t="s">
         <v>1391</v>
       </c>
-      <c r="E364" t="s">
+      <c r="E364" s="2" t="s">
         <v>1392</v>
       </c>
       <c r="F364" t="s">
@@ -14343,7 +14339,7 @@
       <c r="D365" t="s">
         <v>1382</v>
       </c>
-      <c r="E365" t="s">
+      <c r="E365" s="2" t="s">
         <v>1156</v>
       </c>
       <c r="F365" t="s">
@@ -14366,7 +14362,7 @@
       <c r="D366" t="s">
         <v>1370</v>
       </c>
-      <c r="E366" t="s">
+      <c r="E366" s="2" t="s">
         <v>795</v>
       </c>
       <c r="F366" t="s">
@@ -14383,18 +14379,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C84" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/protein/68643818" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C2" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/protein/560939632" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/data/selected-wzys.xlsx
+++ b/data/selected-wzys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idamei/phd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C817F4-194B-7F41-94A6-D746943C4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9766A2C-2A3E-CC47-8159-2A6F36F139B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1493">
   <si>
     <t>species_original</t>
   </si>
@@ -4496,6 +4496,9 @@
   </si>
   <si>
     <t>MAYILAITMVIQSYSKVFFASDTIFQNIFFYALVFFSILIVSISKFRLIDIFLIITSLIIYLAFGNGFALKLFLVSLAVRCLDINKLLRCYLLLATIAFITVILFNVGGDNSLIYFKGDGVFRIARETLGFDNPNKPFYYLLPIFCCFVFLYFKRYPISCITAIIIVTYAVYIKTLTTTGLFSNALLVLMLLIYYFLPNKTNRILGNPLLITCSIIVLYFASFFIAFTYHSDSNVNFFLSHRPEYWYEIIRTTNIYLLIFGQALDLQLVPLDNSYIHSVIYMGAFFCIIMIFCYWLGLTRAKLRGVNISIISILCIYVFFYSFGETLLVEPTLNITFIIIFNYIRDHNKYESIDLQP</t>
+  </si>
+  <si>
+    <t>-2)[aDGlcp(1-3)]aLRhap(1-6)aDGlcp(1-3)[Ac(1-2)]aLFucpN(1-3)[Ac(1-2)]bDGlcpN(1-</t>
   </si>
 </sst>
 </file>
@@ -4988,10 +4991,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5350,8 +5354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9046,8 +9050,11 @@
       <c r="H138">
         <v>562</v>
       </c>
-      <c r="I138">
-        <v>124170</v>
+      <c r="I138" s="1">
+        <v>10216</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -14382,6 +14389,7 @@
   <hyperlinks>
     <hyperlink ref="C84" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/protein/68643818" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C2" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/protein/560939632" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I138" r:id="rId3" tooltip="Click on this persistent CSDB record ID to access structure tools and data associated with this compound in this publication" display="javascript:;" xr:uid="{BB735A13-8DE9-094F-8D53-71212762E720}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
